--- a/data/negative_signals/Disease - Total occurrences (B-to-X) - Terazosin - all categories.xlsx
+++ b/data/negative_signals/Disease - Total occurrences (B-to-X) - Terazosin - all categories.xlsx
@@ -108,67 +108,67 @@
     <t>terazosin</t>
   </si>
   <si>
-    <t>122714490</t>
+    <t>72326125</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>51556144</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>104225203</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>77553442</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>60932869</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>51556237</t>
+  </si>
+  <si>
+    <t>56287758</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>138675089</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>144004828</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>117750020</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>117750118</t>
-  </si>
-  <si>
-    <t>170446018</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>123918270</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
     <t>836219</t>
   </si>
   <si>
     <t>glucose</t>
   </si>
   <si>
-    <t>161176657</t>
-  </si>
-  <si>
-    <t>152754129</t>
-  </si>
-  <si>
-    <t>151635281</t>
-  </si>
-  <si>
-    <t>183311985</t>
+    <t>86263039</t>
+  </si>
+  <si>
+    <t>117117920</t>
   </si>
   <si>
     <t>stimulates</t>
   </si>
   <si>
-    <t>152730949</t>
+    <t>86288816</t>
+  </si>
+  <si>
+    <t>94904484</t>
+  </si>
+  <si>
+    <t>85258027</t>
   </si>
   <si>
     <t>836626</t>
@@ -177,7 +177,7 @@
     <t>sodium chloride</t>
   </si>
   <si>
-    <t>153841256</t>
+    <t>87560212</t>
   </si>
   <si>
     <t>2396875</t>
@@ -186,10 +186,10 @@
     <t>receptor</t>
   </si>
   <si>
-    <t>143433817</t>
-  </si>
-  <si>
-    <t>153908590</t>
+    <t>87671988</t>
+  </si>
+  <si>
+    <t>76948601</t>
   </si>
   <si>
     <t>4048013</t>
@@ -198,7 +198,7 @@
     <t>lipoproteins</t>
   </si>
   <si>
-    <t>141521424</t>
+    <t>75187871</t>
   </si>
   <si>
     <t>614774</t>
@@ -207,7 +207,7 @@
     <t>nitric oxide</t>
   </si>
   <si>
-    <t>178958763</t>
+    <t>112732783</t>
   </si>
   <si>
     <t>836817</t>
@@ -216,7 +216,7 @@
     <t>insulin (homo sapiens)</t>
   </si>
   <si>
-    <t>152731010</t>
+    <t>86263075</t>
   </si>
   <si>
     <t>5264642</t>
@@ -225,7 +225,7 @@
     <t>binding sites</t>
   </si>
   <si>
-    <t>138934228</t>
+    <t>74993112</t>
   </si>
   <si>
     <t>4027945</t>
@@ -234,13 +234,13 @@
     <t>lipids</t>
   </si>
   <si>
-    <t>151635449</t>
-  </si>
-  <si>
-    <t>161176582</t>
-  </si>
-  <si>
-    <t>152754014</t>
+    <t>86288714</t>
+  </si>
+  <si>
+    <t>94904416</t>
+  </si>
+  <si>
+    <t>85258158</t>
   </si>
   <si>
     <t>3811276</t>
@@ -249,10 +249,10 @@
     <t>favor</t>
   </si>
   <si>
-    <t>119137718</t>
-  </si>
-  <si>
-    <t>149189159</t>
+    <t>82718695</t>
+  </si>
+  <si>
+    <t>52857301</t>
   </si>
   <si>
     <t>736556</t>
@@ -261,7 +261,16 @@
     <t>oxidoreductase</t>
   </si>
   <si>
-    <t>126411533</t>
+    <t>59982263</t>
+  </si>
+  <si>
+    <t>5082180</t>
+  </si>
+  <si>
+    <t>matrix metalloproteinase 2</t>
+  </si>
+  <si>
+    <t>131503853</t>
   </si>
   <si>
     <t>5802726</t>
@@ -270,7 +279,7 @@
     <t>serotonin</t>
   </si>
   <si>
-    <t>174858301</t>
+    <t>108666912</t>
   </si>
   <si>
     <t>836641</t>
@@ -279,13 +288,13 @@
     <t>norepinephrine</t>
   </si>
   <si>
-    <t>141205440</t>
-  </si>
-  <si>
-    <t>141205271</t>
-  </si>
-  <si>
-    <t>132345893</t>
+    <t>74872910</t>
+  </si>
+  <si>
+    <t>65999128</t>
+  </si>
+  <si>
+    <t>74873102</t>
   </si>
   <si>
     <t>4041439</t>
@@ -294,13 +303,13 @@
     <t>dopamine</t>
   </si>
   <si>
-    <t>130711383</t>
-  </si>
-  <si>
-    <t>133545738</t>
-  </si>
-  <si>
-    <t>130710269</t>
+    <t>64299688</t>
+  </si>
+  <si>
+    <t>69829679</t>
+  </si>
+  <si>
+    <t>64298712</t>
   </si>
   <si>
     <t>5646027</t>
@@ -309,7 +318,7 @@
     <t>antibiotics</t>
   </si>
   <si>
-    <t>165053017</t>
+    <t>98838123</t>
   </si>
   <si>
     <t>477790</t>
@@ -318,7 +327,7 @@
     <t>collagen</t>
   </si>
   <si>
-    <t>142487658</t>
+    <t>76021868</t>
   </si>
   <si>
     <t>771187</t>
@@ -327,7 +336,7 @@
     <t>cholesterol</t>
   </si>
   <si>
-    <t>181972958</t>
+    <t>115775255</t>
   </si>
   <si>
     <t>89343</t>
@@ -336,7 +345,7 @@
     <t>tamoxifen</t>
   </si>
   <si>
-    <t>172028771</t>
+    <t>105836549</t>
   </si>
   <si>
     <t>643114</t>
@@ -345,7 +354,112 @@
     <t>aspirin</t>
   </si>
   <si>
-    <t>199885158</t>
+    <t>133694308</t>
+  </si>
+  <si>
+    <t>477234</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>82641664</t>
+  </si>
+  <si>
+    <t>4048102</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>95070709</t>
+  </si>
+  <si>
+    <t>3225259</t>
+  </si>
+  <si>
+    <t>vascular endothelial growth factor a (homo sapiens)</t>
+  </si>
+  <si>
+    <t>116487710</t>
+  </si>
+  <si>
+    <t>5195116</t>
+  </si>
+  <si>
+    <t>transforming growth factor beta</t>
+  </si>
+  <si>
+    <t>97547045</t>
+  </si>
+  <si>
+    <t>821170</t>
+  </si>
+  <si>
+    <t>epinephrine</t>
+  </si>
+  <si>
+    <t>113926229</t>
+  </si>
+  <si>
+    <t>76021820</t>
+  </si>
+  <si>
+    <t>271994</t>
+  </si>
+  <si>
+    <t>potassium</t>
+  </si>
+  <si>
+    <t>86288750</t>
+  </si>
+  <si>
+    <t>94904247</t>
+  </si>
+  <si>
+    <t>700033</t>
+  </si>
+  <si>
+    <t>angiotensinogen (homo sapiens)</t>
+  </si>
+  <si>
+    <t>94924313</t>
+  </si>
+  <si>
+    <t>5166696</t>
+  </si>
+  <si>
+    <t>albumins</t>
+  </si>
+  <si>
+    <t>65755356</t>
+  </si>
+  <si>
+    <t>4042083</t>
+  </si>
+  <si>
+    <t>buffers</t>
+  </si>
+  <si>
+    <t>61699596</t>
+  </si>
+  <si>
+    <t>3377529</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>100375192</t>
+  </si>
+  <si>
+    <t>332232</t>
+  </si>
+  <si>
+    <t>transforming growth factor beta-1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>118042584</t>
   </si>
   <si>
     <t>3783420</t>
@@ -354,112 +468,7 @@
     <t>caspase-3</t>
   </si>
   <si>
-    <t>177828550</t>
-  </si>
-  <si>
-    <t>477234</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>149065273</t>
-  </si>
-  <si>
-    <t>3225259</t>
-  </si>
-  <si>
-    <t>vascular endothelial growth factor a (homo sapiens)</t>
-  </si>
-  <si>
-    <t>182621115</t>
-  </si>
-  <si>
-    <t>4048102</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>161269726</t>
-  </si>
-  <si>
-    <t>5195116</t>
-  </si>
-  <si>
-    <t>transforming growth factor beta</t>
-  </si>
-  <si>
-    <t>163744495</t>
-  </si>
-  <si>
-    <t>821170</t>
-  </si>
-  <si>
-    <t>epinephrine</t>
-  </si>
-  <si>
-    <t>142487626</t>
-  </si>
-  <si>
-    <t>180050889</t>
-  </si>
-  <si>
-    <t>271994</t>
-  </si>
-  <si>
-    <t>potassium</t>
-  </si>
-  <si>
-    <t>161176460</t>
-  </si>
-  <si>
-    <t>152754069</t>
-  </si>
-  <si>
-    <t>700033</t>
-  </si>
-  <si>
-    <t>angiotensinogen (homo sapiens)</t>
-  </si>
-  <si>
-    <t>161037977</t>
-  </si>
-  <si>
-    <t>5166696</t>
-  </si>
-  <si>
-    <t>albumins</t>
-  </si>
-  <si>
-    <t>132111143</t>
-  </si>
-  <si>
-    <t>4042083</t>
-  </si>
-  <si>
-    <t>buffers</t>
-  </si>
-  <si>
-    <t>128107387</t>
-  </si>
-  <si>
-    <t>3377529</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>166578422</t>
-  </si>
-  <si>
-    <t>332232</t>
-  </si>
-  <si>
-    <t>transforming growth factor beta-1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>184241269</t>
+    <t>111603841</t>
   </si>
   <si>
     <t>830235</t>
@@ -468,7 +477,7 @@
     <t>hemoglobin</t>
   </si>
   <si>
-    <t>132111060</t>
+    <t>65755252</t>
   </si>
   <si>
     <t>837071</t>
@@ -477,19 +486,19 @@
     <t>phenylephrine</t>
   </si>
   <si>
-    <t>138588453</t>
-  </si>
-  <si>
-    <t>137080706</t>
-  </si>
-  <si>
-    <t>139751356</t>
-  </si>
-  <si>
-    <t>129843259</t>
-  </si>
-  <si>
-    <t>141205520</t>
+    <t>73399199</t>
+  </si>
+  <si>
+    <t>70723325</t>
+  </si>
+  <si>
+    <t>72099502</t>
+  </si>
+  <si>
+    <t>74873203</t>
+  </si>
+  <si>
+    <t>66470278</t>
   </si>
   <si>
     <t>620183</t>
@@ -498,10 +507,10 @@
     <t>triglycerides</t>
   </si>
   <si>
-    <t>117707655</t>
-  </si>
-  <si>
-    <t>134292389</t>
+    <t>67800745</t>
+  </si>
+  <si>
+    <t>51508482</t>
   </si>
   <si>
     <t>450061</t>
@@ -510,28 +519,28 @@
     <t>propranolol</t>
   </si>
   <si>
-    <t>149189499</t>
-  </si>
-  <si>
-    <t>149189515</t>
+    <t>82719183</t>
   </si>
   <si>
     <t>is the same as</t>
   </si>
   <si>
-    <t>141903489</t>
+    <t>75568379</t>
   </si>
   <si>
     <t>does not interact with</t>
   </si>
   <si>
+    <t>82719113</t>
+  </si>
+  <si>
     <t>3097558</t>
   </si>
   <si>
     <t>human plasma</t>
   </si>
   <si>
-    <t>157824905</t>
+    <t>91655938</t>
   </si>
   <si>
     <t>807985</t>
@@ -540,7 +549,7 @@
     <t>paclitaxel</t>
   </si>
   <si>
-    <t>196284764</t>
+    <t>130061940</t>
   </si>
   <si>
     <t>432475</t>
@@ -549,7 +558,7 @@
     <t>verapamil</t>
   </si>
   <si>
-    <t>152754636</t>
+    <t>86289233</t>
   </si>
   <si>
     <t>6435130</t>
@@ -558,7 +567,7 @@
     <t>cell adhesion protein</t>
   </si>
   <si>
-    <t>123902079</t>
+    <t>57514065</t>
   </si>
   <si>
     <t>614331</t>
@@ -567,7 +576,7 @@
     <t>catalase (homo sapiens)</t>
   </si>
   <si>
-    <t>196608529</t>
+    <t>130404854</t>
   </si>
   <si>
     <t>4412593</t>
@@ -576,7 +585,7 @@
     <t>intercellular adhesion molecule 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>123902831</t>
+    <t>57514872</t>
   </si>
   <si>
     <t>5176375</t>
@@ -585,28 +594,28 @@
     <t>adrenergic receptor</t>
   </si>
   <si>
-    <t>154617782</t>
-  </si>
-  <si>
-    <t>117706927</t>
-  </si>
-  <si>
-    <t>161453484</t>
+    <t>93395992</t>
+  </si>
+  <si>
+    <t>88394163</t>
+  </si>
+  <si>
+    <t>51507410</t>
+  </si>
+  <si>
+    <t>95248597</t>
   </si>
   <si>
     <t>does not inhibit</t>
   </si>
   <si>
-    <t>159684916</t>
-  </si>
-  <si>
     <t>5699562</t>
   </si>
   <si>
     <t>gtp-binding proteins</t>
   </si>
   <si>
-    <t>139957790</t>
+    <t>73568883</t>
   </si>
   <si>
     <t>352433</t>
@@ -615,37 +624,28 @@
     <t>endothelin-1 (homo sapiens)</t>
   </si>
   <si>
-    <t>143263900</t>
+    <t>76880740</t>
   </si>
   <si>
     <t>does not stimulate</t>
   </si>
   <si>
+    <t>831949</t>
+  </si>
+  <si>
+    <t>peptidyl-dipeptidase a</t>
+  </si>
+  <si>
+    <t>89731073</t>
+  </si>
+  <si>
     <t>4734434</t>
   </si>
   <si>
     <t>thyroid hormones</t>
   </si>
   <si>
-    <t>191811104</t>
-  </si>
-  <si>
-    <t>5082180</t>
-  </si>
-  <si>
-    <t>matrix metalloproteinase 2</t>
-  </si>
-  <si>
-    <t>197663973</t>
-  </si>
-  <si>
-    <t>831949</t>
-  </si>
-  <si>
-    <t>peptidyl-dipeptidase a</t>
-  </si>
-  <si>
-    <t>155917813</t>
+    <t>125605751</t>
   </si>
   <si>
     <t>3814854</t>
@@ -654,7 +654,16 @@
     <t>dihydrotestosterone</t>
   </si>
   <si>
-    <t>152165090</t>
+    <t>85739430</t>
+  </si>
+  <si>
+    <t>801517</t>
+  </si>
+  <si>
+    <t>hsp90 heat-shock proteins</t>
+  </si>
+  <si>
+    <t>89231776</t>
   </si>
   <si>
     <t>4048407</t>
@@ -663,10 +672,10 @@
     <t>glycosaminoglycans</t>
   </si>
   <si>
-    <t>198280716</t>
-  </si>
-  <si>
-    <t>197663262</t>
+    <t>131503182</t>
+  </si>
+  <si>
+    <t>132124458</t>
   </si>
   <si>
     <t>4048707</t>
@@ -675,7 +684,7 @@
     <t>growth inhibitors</t>
   </si>
   <si>
-    <t>197709774</t>
+    <t>131497647</t>
   </si>
   <si>
     <t>4775900</t>
@@ -684,7 +693,7 @@
     <t>calcium channel blockers</t>
   </si>
   <si>
-    <t>175961365</t>
+    <t>109781678</t>
   </si>
   <si>
     <t>3147144</t>
@@ -693,7 +702,7 @@
     <t>adrenergic receptor alpha(1a)</t>
   </si>
   <si>
-    <t>180049215</t>
+    <t>113875679</t>
   </si>
   <si>
     <t>4034599</t>
@@ -702,7 +711,7 @@
     <t>ethyl ether</t>
   </si>
   <si>
-    <t>185731379</t>
+    <t>119520631</t>
   </si>
   <si>
     <t>5231409</t>
@@ -711,7 +720,7 @@
     <t>adrenergic beta-antagonists</t>
   </si>
   <si>
-    <t>132108454</t>
+    <t>65752852</t>
   </si>
   <si>
     <t>3816127</t>
@@ -720,16 +729,7 @@
     <t>sodium dodecyl sulfate</t>
   </si>
   <si>
-    <t>154520499</t>
-  </si>
-  <si>
-    <t>801517</t>
-  </si>
-  <si>
-    <t>hsp90 heat-shock proteins</t>
-  </si>
-  <si>
-    <t>155407731</t>
+    <t>88351039</t>
   </si>
   <si>
     <t>5792543</t>
@@ -738,7 +738,7 @@
     <t>vinblastine</t>
   </si>
   <si>
-    <t>196284133</t>
+    <t>130061316</t>
   </si>
   <si>
     <t>3113655</t>
@@ -747,13 +747,13 @@
     <t>total cholesterol</t>
   </si>
   <si>
-    <t>127026460</t>
-  </si>
-  <si>
-    <t>186362522</t>
-  </si>
-  <si>
-    <t>134292318</t>
+    <t>120221012</t>
+  </si>
+  <si>
+    <t>67800659</t>
+  </si>
+  <si>
+    <t>60591991</t>
   </si>
   <si>
     <t>4041077</t>
@@ -762,7 +762,7 @@
     <t>enalapril</t>
   </si>
   <si>
-    <t>143971767</t>
+    <t>77583360</t>
   </si>
   <si>
     <t>4027065</t>
@@ -771,52 +771,52 @@
     <t>prazosin</t>
   </si>
   <si>
-    <t>132109574</t>
-  </si>
-  <si>
-    <t>159131569</t>
-  </si>
-  <si>
-    <t>159131410</t>
-  </si>
-  <si>
-    <t>159131555</t>
+    <t>92836774</t>
   </si>
   <si>
     <t>is higher than</t>
   </si>
   <si>
-    <t>121192873</t>
-  </si>
-  <si>
-    <t>159131452</t>
-  </si>
-  <si>
-    <t>159131485</t>
-  </si>
-  <si>
-    <t>136942600</t>
-  </si>
-  <si>
-    <t>121688616</t>
-  </si>
-  <si>
-    <t>132102874</t>
+    <t>92836662</t>
+  </si>
+  <si>
+    <t>92836852</t>
+  </si>
+  <si>
+    <t>92836587</t>
+  </si>
+  <si>
+    <t>65748153</t>
   </si>
   <si>
     <t>is lower than</t>
   </si>
   <si>
-    <t>159622374</t>
-  </si>
-  <si>
-    <t>203650827</t>
+    <t>92836705</t>
+  </si>
+  <si>
+    <t>65753818</t>
+  </si>
+  <si>
+    <t>70620347</t>
+  </si>
+  <si>
+    <t>93440617</t>
+  </si>
+  <si>
+    <t>56887583</t>
+  </si>
+  <si>
+    <t>137459945</t>
   </si>
   <si>
     <t>is parent of</t>
   </si>
   <si>
-    <t>159131618</t>
+    <t>55297914</t>
+  </si>
+  <si>
+    <t>92836791</t>
   </si>
   <si>
     <t>516570</t>
@@ -825,7 +825,7 @@
     <t>potassium channel</t>
   </si>
   <si>
-    <t>185731922</t>
+    <t>119521080</t>
   </si>
   <si>
     <t>168831</t>
@@ -834,7 +834,7 @@
     <t>high density lipoprotein cholesterol</t>
   </si>
   <si>
-    <t>122054489</t>
+    <t>55656545</t>
   </si>
   <si>
     <t>5807323</t>
@@ -843,7 +843,7 @@
     <t>beta-endorphin</t>
   </si>
   <si>
-    <t>170400965</t>
+    <t>104198872</t>
   </si>
   <si>
     <t>5792455</t>
@@ -852,19 +852,19 @@
     <t>atenolol</t>
   </si>
   <si>
-    <t>186372440</t>
-  </si>
-  <si>
-    <t>186368706</t>
-  </si>
-  <si>
-    <t>117708110</t>
-  </si>
-  <si>
-    <t>117706506</t>
-  </si>
-  <si>
-    <t>186372874</t>
+    <t>120231890</t>
+  </si>
+  <si>
+    <t>120231458</t>
+  </si>
+  <si>
+    <t>120227176</t>
+  </si>
+  <si>
+    <t>51507049</t>
+  </si>
+  <si>
+    <t>51508957</t>
   </si>
   <si>
     <t>497638</t>
@@ -873,10 +873,10 @@
     <t>prostate-specific antigen (homo sapiens)</t>
   </si>
   <si>
-    <t>163271571</t>
-  </si>
-  <si>
-    <t>134163235</t>
+    <t>97064025</t>
+  </si>
+  <si>
+    <t>67836542</t>
   </si>
   <si>
     <t>5070869</t>
@@ -885,13 +885,13 @@
     <t>antihypertensive agents</t>
   </si>
   <si>
-    <t>120958360</t>
-  </si>
-  <si>
-    <t>149187768</t>
-  </si>
-  <si>
-    <t>149189294</t>
+    <t>82717504</t>
+  </si>
+  <si>
+    <t>82718905</t>
+  </si>
+  <si>
+    <t>58278933</t>
   </si>
   <si>
     <t>3113437</t>
@@ -900,7 +900,7 @@
     <t>sildenafil</t>
   </si>
   <si>
-    <t>161835507</t>
+    <t>95633212</t>
   </si>
   <si>
     <t>4034783</t>
@@ -909,10 +909,10 @@
     <t>hydrochlorothiazide</t>
   </si>
   <si>
-    <t>179723611</t>
-  </si>
-  <si>
-    <t>132107414</t>
+    <t>113499316</t>
+  </si>
+  <si>
+    <t>65751915</t>
   </si>
   <si>
     <t>90859</t>
@@ -921,7 +921,7 @@
     <t>amlodipine</t>
   </si>
   <si>
-    <t>146110351</t>
+    <t>79658104</t>
   </si>
   <si>
     <t>5229804</t>
@@ -930,7 +930,7 @@
     <t>carvedilol</t>
   </si>
   <si>
-    <t>194978651</t>
+    <t>128754566</t>
   </si>
   <si>
     <t>544312</t>
@@ -939,7 +939,7 @@
     <t>sodium channel</t>
   </si>
   <si>
-    <t>175395980</t>
+    <t>109217272</t>
   </si>
   <si>
     <t>507184</t>
@@ -948,7 +948,7 @@
     <t>inositol phosphates</t>
   </si>
   <si>
-    <t>162657071</t>
+    <t>96466450</t>
   </si>
   <si>
     <t>427699</t>
@@ -957,7 +957,7 @@
     <t>sertraline</t>
   </si>
   <si>
-    <t>196079598</t>
+    <t>129875266</t>
   </si>
   <si>
     <t>3814685</t>
@@ -966,7 +966,7 @@
     <t>uridine</t>
   </si>
   <si>
-    <t>143638564</t>
+    <t>77259273</t>
   </si>
   <si>
     <t>317464</t>
@@ -975,7 +975,7 @@
     <t>lutein</t>
   </si>
   <si>
-    <t>130567257</t>
+    <t>64177171</t>
   </si>
   <si>
     <t>4035541</t>
@@ -984,10 +984,10 @@
     <t>ketanserin</t>
   </si>
   <si>
-    <t>148777870</t>
-  </si>
-  <si>
-    <t>148777927</t>
+    <t>84276445</t>
+  </si>
+  <si>
+    <t>84276497</t>
   </si>
   <si>
     <t>307944</t>
@@ -996,7 +996,7 @@
     <t>adenosine diphosphate</t>
   </si>
   <si>
-    <t>142487650</t>
+    <t>76021847</t>
   </si>
   <si>
     <t>833258</t>
@@ -1005,7 +1005,7 @@
     <t>antagonists</t>
   </si>
   <si>
-    <t>153178645</t>
+    <t>86815014</t>
   </si>
   <si>
     <t>2391546</t>
@@ -1014,7 +1014,22 @@
     <t>radioligand</t>
   </si>
   <si>
-    <t>158676267</t>
+    <t>92499450</t>
+  </si>
+  <si>
+    <t>243173</t>
+  </si>
+  <si>
+    <t>adrenergic alpha-antagonists</t>
+  </si>
+  <si>
+    <t>137233687</t>
+  </si>
+  <si>
+    <t>67732851</t>
+  </si>
+  <si>
+    <t>55656029</t>
   </si>
   <si>
     <t>5308346</t>
@@ -1023,22 +1038,7 @@
     <t>hexamethonium</t>
   </si>
   <si>
-    <t>195764483</t>
-  </si>
-  <si>
-    <t>243173</t>
-  </si>
-  <si>
-    <t>adrenergic alpha-antagonists</t>
-  </si>
-  <si>
-    <t>134055137</t>
-  </si>
-  <si>
-    <t>122053881</t>
-  </si>
-  <si>
-    <t>203422581</t>
+    <t>129578057</t>
   </si>
   <si>
     <t>4978690</t>
@@ -1047,7 +1047,7 @@
     <t>testosterone 5-alpha-reductase</t>
   </si>
   <si>
-    <t>172306058</t>
+    <t>106115544</t>
   </si>
   <si>
     <t>507262</t>
@@ -1056,10 +1056,10 @@
     <t>adrenergic antagonists</t>
   </si>
   <si>
-    <t>191350972</t>
-  </si>
-  <si>
-    <t>122163945</t>
+    <t>55795792</t>
+  </si>
+  <si>
+    <t>125138849</t>
   </si>
   <si>
     <t>2449185</t>
@@ -1068,10 +1068,10 @@
     <t>blood lipid</t>
   </si>
   <si>
-    <t>128601039</t>
-  </si>
-  <si>
-    <t>122714630</t>
+    <t>62209738</t>
+  </si>
+  <si>
+    <t>56287937</t>
   </si>
   <si>
     <t>5699843</t>
@@ -1080,37 +1080,37 @@
     <t>finasteride</t>
   </si>
   <si>
-    <t>138618957</t>
-  </si>
-  <si>
-    <t>180909353</t>
-  </si>
-  <si>
-    <t>138619190</t>
-  </si>
-  <si>
-    <t>144787924</t>
-  </si>
-  <si>
-    <t>188635603</t>
-  </si>
-  <si>
-    <t>177111142</t>
-  </si>
-  <si>
-    <t>177111065</t>
-  </si>
-  <si>
-    <t>141539545</t>
-  </si>
-  <si>
-    <t>138619238</t>
-  </si>
-  <si>
-    <t>134163136</t>
-  </si>
-  <si>
-    <t>177110865</t>
+    <t>110935732</t>
+  </si>
+  <si>
+    <t>122492294</t>
+  </si>
+  <si>
+    <t>72269997</t>
+  </si>
+  <si>
+    <t>114679450</t>
+  </si>
+  <si>
+    <t>110936008</t>
+  </si>
+  <si>
+    <t>75073079</t>
+  </si>
+  <si>
+    <t>67836444</t>
+  </si>
+  <si>
+    <t>72270044</t>
+  </si>
+  <si>
+    <t>110935913</t>
+  </si>
+  <si>
+    <t>78395976</t>
+  </si>
+  <si>
+    <t>72269715</t>
   </si>
   <si>
     <t>5806034</t>
@@ -1119,22 +1119,22 @@
     <t>doxazosin</t>
   </si>
   <si>
-    <t>163925192</t>
-  </si>
-  <si>
-    <t>118555002</t>
-  </si>
-  <si>
-    <t>177111104</t>
-  </si>
-  <si>
-    <t>120987818</t>
-  </si>
-  <si>
-    <t>131048087</t>
-  </si>
-  <si>
-    <t>177110921</t>
+    <t>97718724</t>
+  </si>
+  <si>
+    <t>110935785</t>
+  </si>
+  <si>
+    <t>64563474</t>
+  </si>
+  <si>
+    <t>52324947</t>
+  </si>
+  <si>
+    <t>110935948</t>
+  </si>
+  <si>
+    <t>58304238</t>
   </si>
   <si>
     <t>3760991</t>
@@ -1143,10 +1143,10 @@
     <t>rauwolscine</t>
   </si>
   <si>
-    <t>145082908</t>
-  </si>
-  <si>
-    <t>145082851</t>
+    <t>78729902</t>
+  </si>
+  <si>
+    <t>78729949</t>
   </si>
   <si>
     <t>5033479</t>
@@ -1155,7 +1155,7 @@
     <t>alpha-bungarotoxin</t>
   </si>
   <si>
-    <t>195764466</t>
+    <t>129578040</t>
   </si>
   <si>
     <t>245762</t>
@@ -1164,28 +1164,28 @@
     <t>tamsulosin</t>
   </si>
   <si>
-    <t>163852880</t>
-  </si>
-  <si>
-    <t>129073550</t>
-  </si>
-  <si>
-    <t>144999990</t>
-  </si>
-  <si>
-    <t>163853415</t>
-  </si>
-  <si>
-    <t>176624968</t>
-  </si>
-  <si>
-    <t>135977718</t>
-  </si>
-  <si>
-    <t>134040398</t>
-  </si>
-  <si>
-    <t>129073411</t>
+    <t>67717834</t>
+  </si>
+  <si>
+    <t>62695906</t>
+  </si>
+  <si>
+    <t>97645637</t>
+  </si>
+  <si>
+    <t>69631703</t>
+  </si>
+  <si>
+    <t>78624094</t>
+  </si>
+  <si>
+    <t>110494968</t>
+  </si>
+  <si>
+    <t>62695816</t>
+  </si>
+  <si>
+    <t>97646147</t>
   </si>
   <si>
     <t>357093</t>
@@ -1194,16 +1194,16 @@
     <t>dichlorodiphenyldichloroethane</t>
   </si>
   <si>
-    <t>185822497</t>
-  </si>
-  <si>
-    <t>185820691</t>
-  </si>
-  <si>
-    <t>182787513</t>
-  </si>
-  <si>
-    <t>132102185</t>
+    <t>119602002</t>
+  </si>
+  <si>
+    <t>119600162</t>
+  </si>
+  <si>
+    <t>116591047</t>
+  </si>
+  <si>
+    <t>65747459</t>
   </si>
   <si>
     <t>3814349</t>
@@ -1212,7 +1212,7 @@
     <t>surface-active agents</t>
   </si>
   <si>
-    <t>154511009</t>
+    <t>88340266</t>
   </si>
   <si>
     <t>2531647</t>
@@ -1221,7 +1221,7 @@
     <t>vardenafil</t>
   </si>
   <si>
-    <t>118554867</t>
+    <t>52324847</t>
   </si>
   <si>
     <t>608756</t>
@@ -1230,13 +1230,13 @@
     <t>urapidil</t>
   </si>
   <si>
-    <t>137784835</t>
-  </si>
-  <si>
-    <t>160649280</t>
-  </si>
-  <si>
-    <t>160649226</t>
+    <t>94372678</t>
+  </si>
+  <si>
+    <t>71375485</t>
+  </si>
+  <si>
+    <t>94372742</t>
   </si>
   <si>
     <t>91809</t>
@@ -1245,10 +1245,10 @@
     <t>quinazolines</t>
   </si>
   <si>
-    <t>153454158</t>
-  </si>
-  <si>
-    <t>123906363</t>
+    <t>57516069</t>
+  </si>
+  <si>
+    <t>87196947</t>
   </si>
   <si>
     <t>5793019</t>
@@ -1257,19 +1257,19 @@
     <t>alfuzosin</t>
   </si>
   <si>
-    <t>150620588</t>
-  </si>
-  <si>
-    <t>150619463</t>
-  </si>
-  <si>
-    <t>160649406</t>
-  </si>
-  <si>
-    <t>160649490</t>
-  </si>
-  <si>
-    <t>184349936</t>
+    <t>94372918</t>
+  </si>
+  <si>
+    <t>84238838</t>
+  </si>
+  <si>
+    <t>118133320</t>
+  </si>
+  <si>
+    <t>84240023</t>
+  </si>
+  <si>
+    <t>94372872</t>
   </si>
   <si>
     <t>2482971</t>
@@ -1278,7 +1278,7 @@
     <t>drops - drug form</t>
   </si>
   <si>
-    <t>170446138</t>
+    <t>104225322</t>
   </si>
   <si>
     <t>4854209</t>
@@ -1287,10 +1287,10 @@
     <t>buflomedil</t>
   </si>
   <si>
-    <t>156156441</t>
-  </si>
-  <si>
-    <t>156201371</t>
+    <t>89969563</t>
+  </si>
+  <si>
+    <t>90013812</t>
   </si>
   <si>
     <t>384451</t>
@@ -1299,7 +1299,7 @@
     <t>nisoxetine</t>
   </si>
   <si>
-    <t>195764654</t>
+    <t>129578237</t>
   </si>
   <si>
     <t>5040897</t>
@@ -1308,16 +1308,16 @@
     <t>bunazosin</t>
   </si>
   <si>
-    <t>132710633</t>
-  </si>
-  <si>
-    <t>160649657</t>
-  </si>
-  <si>
-    <t>148777838</t>
-  </si>
-  <si>
-    <t>160649609</t>
+    <t>94372987</t>
+  </si>
+  <si>
+    <t>82419522</t>
+  </si>
+  <si>
+    <t>94373049</t>
+  </si>
+  <si>
+    <t>66327940</t>
   </si>
   <si>
     <t>262712</t>
@@ -1326,7 +1326,7 @@
     <t>proscar</t>
   </si>
   <si>
-    <t>170585881</t>
+    <t>104403946</t>
   </si>
   <si>
     <t>307599</t>
@@ -1335,16 +1335,16 @@
     <t>naftopidil</t>
   </si>
   <si>
-    <t>149116982</t>
-  </si>
-  <si>
-    <t>161498671</t>
-  </si>
-  <si>
-    <t>137785052</t>
-  </si>
-  <si>
-    <t>148889278</t>
+    <t>95309982</t>
+  </si>
+  <si>
+    <t>82418667</t>
+  </si>
+  <si>
+    <t>82647263</t>
+  </si>
+  <si>
+    <t>71375690</t>
   </si>
   <si>
     <t>3785569</t>
@@ -1353,7 +1353,7 @@
     <t>psa reagents</t>
   </si>
   <si>
-    <t>145000050</t>
+    <t>78624160</t>
   </si>
   <si>
     <t>4769522</t>
@@ -1362,10 +1362,10 @@
     <t>chlormezanone</t>
   </si>
   <si>
-    <t>123240998</t>
-  </si>
-  <si>
-    <t>123241533</t>
+    <t>56747235</t>
+  </si>
+  <si>
+    <t>56747696</t>
   </si>
   <si>
     <t>300272</t>
@@ -1374,7 +1374,7 @@
     <t>methyclothiazide</t>
   </si>
   <si>
-    <t>149189057</t>
+    <t>82718644</t>
   </si>
   <si>
     <t>395433</t>
@@ -1383,7 +1383,7 @@
     <t>dexketoprofen trometamol</t>
   </si>
   <si>
-    <t>162318714</t>
+    <t>96087157</t>
   </si>
   <si>
     <t>2379446</t>
@@ -1392,22 +1392,22 @@
     <t>terazosin hydrochloride</t>
   </si>
   <si>
-    <t>205235764</t>
+    <t>139050282</t>
   </si>
   <si>
     <t>converts to</t>
   </si>
   <si>
-    <t>204593020</t>
+    <t>138425247</t>
+  </si>
+  <si>
+    <t>138425250</t>
   </si>
   <si>
     <t>is ingredient of</t>
   </si>
   <si>
-    <t>204593017</t>
-  </si>
-  <si>
-    <t>204593023</t>
+    <t>138425254</t>
   </si>
   <si>
     <t>409516</t>
@@ -1416,7 +1416,7 @@
     <t>da 8159</t>
   </si>
   <si>
-    <t>170429016</t>
+    <t>104207685</t>
   </si>
   <si>
     <t>2456863</t>
@@ -1425,10 +1425,10 @@
     <t>hytrin</t>
   </si>
   <si>
-    <t>204593008</t>
-  </si>
-  <si>
-    <t>121687801</t>
+    <t>55297453</t>
+  </si>
+  <si>
+    <t>138425237</t>
   </si>
   <si>
     <t>807959</t>
@@ -1437,7 +1437,7 @@
     <t>adecur</t>
   </si>
   <si>
-    <t>204593157</t>
+    <t>138425434</t>
   </si>
   <si>
     <t>777078</t>
@@ -1446,7 +1446,7 @@
     <t>terazosina kern</t>
   </si>
   <si>
-    <t>204593235</t>
+    <t>138425495</t>
   </si>
   <si>
     <t>60726</t>
@@ -1455,7 +1455,7 @@
     <t>magnurol</t>
   </si>
   <si>
-    <t>204593171</t>
+    <t>138425450</t>
   </si>
   <si>
     <t>4935</t>
@@ -1464,7 +1464,7 @@
     <t>a 45975</t>
   </si>
   <si>
-    <t>204593285</t>
+    <t>138425545</t>
   </si>
   <si>
     <t>447313</t>
@@ -1473,7 +1473,7 @@
     <t>nu-terazosin</t>
   </si>
   <si>
-    <t>204593121</t>
+    <t>138425386</t>
   </si>
   <si>
     <t>328141</t>
@@ -1482,7 +1482,7 @@
     <t>dysalfa</t>
   </si>
   <si>
-    <t>204593165</t>
+    <t>138425442</t>
   </si>
   <si>
     <t>3263179</t>
@@ -1491,7 +1491,7 @@
     <t>novo-terazosin</t>
   </si>
   <si>
-    <t>204593116</t>
+    <t>138425376</t>
   </si>
   <si>
     <t>3225198</t>
@@ -1500,7 +1500,7 @@
     <t>ratio-terazosin</t>
   </si>
   <si>
-    <t>204593132</t>
+    <t>138425399</t>
   </si>
   <si>
     <t>3225053</t>
@@ -1509,7 +1509,7 @@
     <t>pms-terazosin</t>
   </si>
   <si>
-    <t>204593126</t>
+    <t>138425394</t>
   </si>
   <si>
     <t>2996990</t>
@@ -1518,7 +1518,7 @@
     <t>terazosin azu</t>
   </si>
   <si>
-    <t>204593216</t>
+    <t>138425486</t>
   </si>
   <si>
     <t>2996748</t>
@@ -1527,7 +1527,7 @@
     <t>terazosina qualix</t>
   </si>
   <si>
-    <t>204593245</t>
+    <t>138425505</t>
   </si>
   <si>
     <t>2974325</t>
@@ -1536,7 +1536,7 @@
     <t>terazosin hexal</t>
   </si>
   <si>
-    <t>204593206</t>
+    <t>138425481</t>
   </si>
   <si>
     <t>2973953</t>
@@ -1545,7 +1545,7 @@
     <t>zayasel</t>
   </si>
   <si>
-    <t>204593252</t>
+    <t>138425509</t>
   </si>
   <si>
     <t>2973897</t>
@@ -1554,7 +1554,7 @@
     <t>terazosina alter</t>
   </si>
   <si>
-    <t>204593226</t>
+    <t>138425492</t>
   </si>
   <si>
     <t>2973615</t>
@@ -1563,7 +1563,7 @@
     <t>tazusin</t>
   </si>
   <si>
-    <t>204593188</t>
+    <t>138425466</t>
   </si>
   <si>
     <t>2973464</t>
@@ -1572,7 +1572,7 @@
     <t>sutif</t>
   </si>
   <si>
-    <t>204593181</t>
+    <t>138425459</t>
   </si>
   <si>
     <t>290046</t>
@@ -1581,7 +1581,7 @@
     <t>terazoflo</t>
   </si>
   <si>
-    <t>204593198</t>
+    <t>138425471</t>
   </si>
   <si>
     <t>2866739</t>
@@ -1590,7 +1590,7 @@
     <t>apo-terazosin</t>
   </si>
   <si>
-    <t>204593111</t>
+    <t>138425367</t>
   </si>
   <si>
     <t>120225</t>
@@ -1599,13 +1599,13 @@
     <t>terazosin hydrochloride anhydrous</t>
   </si>
   <si>
-    <t>204593264</t>
-  </si>
-  <si>
-    <t>205870262</t>
-  </si>
-  <si>
-    <t>204593265</t>
+    <t>138425518</t>
+  </si>
+  <si>
+    <t>139671779</t>
+  </si>
+  <si>
+    <t>138425516</t>
   </si>
   <si>
     <t>97357</t>
@@ -1614,10 +1614,10 @@
     <t>adrenergic alpha-1 receptor antagonists</t>
   </si>
   <si>
-    <t>137674277</t>
-  </si>
-  <si>
-    <t>203732305</t>
+    <t>137548828</t>
+  </si>
+  <si>
+    <t>73783696</t>
   </si>
   <si>
     <t>1480551</t>
@@ -1626,7 +1626,7 @@
     <t>endocrine in tox</t>
   </si>
   <si>
-    <t>205616607</t>
+    <t>139422051</t>
   </si>
   <si>
     <t>2052427</t>
@@ -1635,7 +1635,7 @@
     <t>terazosin 5 mg</t>
   </si>
   <si>
-    <t>204593275</t>
+    <t>138425536</t>
   </si>
   <si>
     <t>2051431</t>
@@ -1644,7 +1644,7 @@
     <t>terazosin 1 mg</t>
   </si>
   <si>
-    <t>204593271</t>
+    <t>138425528</t>
   </si>
   <si>
     <t>3330546</t>
@@ -1653,7 +1653,7 @@
     <t>terazosin 10 mg</t>
   </si>
   <si>
-    <t>204593102</t>
+    <t>138425359</t>
   </si>
   <si>
     <t>3227293</t>
@@ -1662,7 +1662,7 @@
     <t>terazosin 2 mg</t>
   </si>
   <si>
-    <t>204593097</t>
+    <t>138425350</t>
   </si>
   <si>
     <t>2531672</t>
@@ -1671,10 +1671,10 @@
     <t>terazosin 2 mg oral tablet</t>
   </si>
   <si>
-    <t>204593070</t>
-  </si>
-  <si>
-    <t>204593071</t>
+    <t>138425323</t>
+  </si>
+  <si>
+    <t>138425322</t>
   </si>
   <si>
     <t>2493331</t>
@@ -1683,10 +1683,10 @@
     <t>terazosin 5 mg oral tablet</t>
   </si>
   <si>
-    <t>204593090</t>
-  </si>
-  <si>
-    <t>204593088</t>
+    <t>138425340</t>
+  </si>
+  <si>
+    <t>138425342</t>
   </si>
   <si>
     <t>2493254</t>
@@ -1695,10 +1695,10 @@
     <t>terazosin 5 mg oral capsule</t>
   </si>
   <si>
-    <t>204593083</t>
-  </si>
-  <si>
-    <t>204593079</t>
+    <t>138425333</t>
+  </si>
+  <si>
+    <t>138425336</t>
   </si>
   <si>
     <t>2531595</t>
@@ -1707,10 +1707,10 @@
     <t>terazosin 10 mg oral tablet</t>
   </si>
   <si>
-    <t>204593047</t>
-  </si>
-  <si>
-    <t>204593045</t>
+    <t>138425278</t>
+  </si>
+  <si>
+    <t>138425276</t>
   </si>
   <si>
     <t>2528815</t>
@@ -1719,10 +1719,10 @@
     <t>terazosin 10 mg oral capsule</t>
   </si>
   <si>
-    <t>204593030</t>
-  </si>
-  <si>
-    <t>204593028</t>
+    <t>138425267</t>
+  </si>
+  <si>
+    <t>138425262</t>
   </si>
   <si>
     <t>2493411</t>
@@ -1731,10 +1731,10 @@
     <t>terazosin 1 mg oral capsule</t>
   </si>
   <si>
-    <t>204593054</t>
-  </si>
-  <si>
-    <t>204593051</t>
+    <t>138425288</t>
+  </si>
+  <si>
+    <t>138425291</t>
   </si>
   <si>
     <t>2493222</t>
@@ -1743,10 +1743,10 @@
     <t>terazosin 2 mg oral capsule</t>
   </si>
   <si>
-    <t>204593067</t>
-  </si>
-  <si>
-    <t>204593064</t>
+    <t>138425309</t>
+  </si>
+  <si>
+    <t>138425313</t>
   </si>
   <si>
     <t>860755</t>
@@ -1755,7 +1755,7 @@
     <t>terazosin &amp;#x7c; bld-ser-plas</t>
   </si>
   <si>
-    <t>204593296</t>
+    <t>138425553</t>
   </si>
   <si>
     <t>2493446</t>
@@ -1764,7 +1764,7 @@
     <t>terazosin 1 mg oral tablet</t>
   </si>
   <si>
-    <t>204593060</t>
+    <t>138425298</t>
   </si>
   <si>
     <t>3217834</t>
@@ -1773,7 +1773,7 @@
     <t>terazosin oral capsule</t>
   </si>
   <si>
-    <t>204593139</t>
+    <t>138425407</t>
   </si>
   <si>
     <t>3180789</t>
@@ -1782,7 +1782,7 @@
     <t>terazosin oral tablet</t>
   </si>
   <si>
-    <t>204593142</t>
+    <t>138425416</t>
   </si>
   <si>
     <t>1797864</t>
@@ -1791,7 +1791,7 @@
     <t>terazosin pill</t>
   </si>
   <si>
-    <t>204593325</t>
+    <t>138425587</t>
   </si>
   <si>
     <t>1797430</t>
@@ -1800,7 +1800,7 @@
     <t>terazosin oral product</t>
   </si>
   <si>
-    <t>204593319</t>
+    <t>138425580</t>
   </si>
   <si>
     <t>2449184</t>
@@ -1812,7 +1812,7 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>158676672</t>
+    <t>92499887</t>
   </si>
   <si>
     <t>is location of</t>
@@ -1824,13 +1824,13 @@
     <t>cells</t>
   </si>
   <si>
-    <t>173541313</t>
+    <t>107320883</t>
   </si>
   <si>
     <t>affects</t>
   </si>
   <si>
-    <t>177858801</t>
+    <t>111634081</t>
   </si>
   <si>
     <t>3814867</t>
@@ -1839,7 +1839,7 @@
     <t>spleen</t>
   </si>
   <si>
-    <t>190467069</t>
+    <t>124325757</t>
   </si>
   <si>
     <t>augments</t>
@@ -1851,7 +1851,7 @@
     <t>urinary bladder</t>
   </si>
   <si>
-    <t>147227634</t>
+    <t>80852201</t>
   </si>
   <si>
     <t>4028790</t>
@@ -1860,7 +1860,7 @@
     <t>myocardium</t>
   </si>
   <si>
-    <t>146002686</t>
+    <t>79615386</t>
   </si>
   <si>
     <t>837300</t>
@@ -1869,10 +1869,10 @@
     <t>prostate</t>
   </si>
   <si>
-    <t>158024855</t>
-  </si>
-  <si>
-    <t>139640805</t>
+    <t>75645176</t>
+  </si>
+  <si>
+    <t>91733053</t>
   </si>
   <si>
     <t>4042067</t>
@@ -1881,7 +1881,7 @@
     <t>cerebral cortex</t>
   </si>
   <si>
-    <t>143017409</t>
+    <t>76556565</t>
   </si>
   <si>
     <t>431254</t>
@@ -1890,7 +1890,7 @@
     <t>brain</t>
   </si>
   <si>
-    <t>139640958</t>
+    <t>75645346</t>
   </si>
   <si>
     <t>3774916</t>
@@ -1899,7 +1899,7 @@
     <t>endothelial cells</t>
   </si>
   <si>
-    <t>182622447</t>
+    <t>116489081</t>
   </si>
   <si>
     <t>412266</t>
@@ -1908,10 +1908,10 @@
     <t>cultured cell line</t>
   </si>
   <si>
-    <t>161922756</t>
-  </si>
-  <si>
-    <t>180111291</t>
+    <t>95720421</t>
+  </si>
+  <si>
+    <t>113890529</t>
   </si>
   <si>
     <t>544027</t>
@@ -1920,7 +1920,7 @@
     <t>kidney</t>
   </si>
   <si>
-    <t>131047215</t>
+    <t>64562627</t>
   </si>
   <si>
     <t>4035048</t>
@@ -1929,7 +1929,7 @@
     <t>heart</t>
   </si>
   <si>
-    <t>162578845</t>
+    <t>96375414</t>
   </si>
   <si>
     <t>4028126</t>
@@ -1938,7 +1938,7 @@
     <t>muscle</t>
   </si>
   <si>
-    <t>174858085</t>
+    <t>108666687</t>
   </si>
   <si>
     <t>4042269</t>
@@ -1947,16 +1947,16 @@
     <t>blood vessel</t>
   </si>
   <si>
-    <t>198219464</t>
-  </si>
-  <si>
-    <t>166646136</t>
+    <t>120418902</t>
+  </si>
+  <si>
+    <t>100443470</t>
   </si>
   <si>
     <t>disrupts</t>
   </si>
   <si>
-    <t>186615732</t>
+    <t>132064513</t>
   </si>
   <si>
     <t>4818196</t>
@@ -1965,7 +1965,7 @@
     <t>t-lymphocyte</t>
   </si>
   <si>
-    <t>123907993</t>
+    <t>57517616</t>
   </si>
   <si>
     <t>5235157</t>
@@ -1974,7 +1974,7 @@
     <t>aorta</t>
   </si>
   <si>
-    <t>132102557</t>
+    <t>65747808</t>
   </si>
   <si>
     <t>3176839</t>
@@ -1983,7 +1983,7 @@
     <t>tract</t>
   </si>
   <si>
-    <t>182567821</t>
+    <t>116370166</t>
   </si>
   <si>
     <t>218768</t>
@@ -1992,7 +1992,7 @@
     <t>veins</t>
   </si>
   <si>
-    <t>145082983</t>
+    <t>78730035</t>
   </si>
   <si>
     <t>244127</t>
@@ -2001,7 +2001,7 @@
     <t>left ventricular structure</t>
   </si>
   <si>
-    <t>133545067</t>
+    <t>69829141</t>
   </si>
   <si>
     <t>3776896</t>
@@ -2010,7 +2010,7 @@
     <t>shell - animal skin appendage</t>
   </si>
   <si>
-    <t>140069789</t>
+    <t>73635798</t>
   </si>
   <si>
     <t>697630</t>
@@ -2019,7 +2019,7 @@
     <t>right ventricular structure</t>
   </si>
   <si>
-    <t>161453630</t>
+    <t>95248762</t>
   </si>
   <si>
     <t>3211777</t>
@@ -2028,7 +2028,7 @@
     <t>entire pulmonary artery</t>
   </si>
   <si>
-    <t>132102649</t>
+    <t>65747893</t>
   </si>
   <si>
     <t>506596</t>
@@ -2037,7 +2037,7 @@
     <t>left atrial structure</t>
   </si>
   <si>
-    <t>133545203</t>
+    <t>69829274</t>
   </si>
   <si>
     <t>3359372</t>
@@ -2046,7 +2046,7 @@
     <t>fundus</t>
   </si>
   <si>
-    <t>153545810</t>
+    <t>87270612</t>
   </si>
   <si>
     <t>3043940</t>
@@ -2055,7 +2055,7 @@
     <t>cos cells</t>
   </si>
   <si>
-    <t>143017506</t>
+    <t>76556684</t>
   </si>
   <si>
     <t>2984760</t>
@@ -2064,7 +2064,7 @@
     <t>prostatic tissue</t>
   </si>
   <si>
-    <t>168376508</t>
+    <t>102164075</t>
   </si>
   <si>
     <t>2877829</t>
@@ -2073,7 +2073,7 @@
     <t>entire arteriole</t>
   </si>
   <si>
-    <t>155918035</t>
+    <t>89731310</t>
   </si>
   <si>
     <t>136042</t>
@@ -2082,7 +2082,7 @@
     <t>pressoreceptors</t>
   </si>
   <si>
-    <t>125497400</t>
+    <t>59112602</t>
   </si>
   <si>
     <t>3769334</t>
@@ -2091,7 +2091,7 @@
     <t>body of stomach</t>
   </si>
   <si>
-    <t>174858153</t>
+    <t>108666766</t>
   </si>
   <si>
     <t>3776897</t>
@@ -2100,7 +2100,7 @@
     <t>lumbosacral spinal cord</t>
   </si>
   <si>
-    <t>195885881</t>
+    <t>129680492</t>
   </si>
   <si>
     <t>3776777</t>
@@ -2109,7 +2109,7 @@
     <t>structure of hypogastric nerves</t>
   </si>
   <si>
-    <t>131048209</t>
+    <t>64563577</t>
   </si>
   <si>
     <t>2884578</t>
@@ -2118,7 +2118,7 @@
     <t>entire inferior cardiac nerve</t>
   </si>
   <si>
-    <t>131047436</t>
+    <t>64562794</t>
   </si>
   <si>
     <t>2961813</t>
@@ -2130,7 +2130,7 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>170401006</t>
+    <t>104198913</t>
   </si>
   <si>
     <t>100020</t>
@@ -2139,7 +2139,7 @@
     <t>single nucleotide polymorphism</t>
   </si>
   <si>
-    <t>183832992</t>
+    <t>117624107</t>
   </si>
   <si>
     <t>2467772</t>
@@ -2148,7 +2148,7 @@
     <t>bax (homo sapiens)</t>
   </si>
   <si>
-    <t>86863812</t>
+    <t>21693625</t>
   </si>
   <si>
     <t>2792624</t>
@@ -2157,7 +2157,7 @@
     <t>bcl2 (homo sapiens)</t>
   </si>
   <si>
-    <t>85348893</t>
+    <t>19216462</t>
   </si>
   <si>
     <t>2787844</t>
@@ -2166,7 +2166,7 @@
     <t>abcb1 (homo sapiens)</t>
   </si>
   <si>
-    <t>196273858</t>
+    <t>130050965</t>
   </si>
   <si>
     <t>2791885</t>
@@ -2175,7 +2175,7 @@
     <t>cd40 (homo sapiens)</t>
   </si>
   <si>
-    <t>123902959</t>
+    <t>57514972</t>
   </si>
   <si>
     <t>3021922</t>
@@ -2184,10 +2184,10 @@
     <t>kcnh2 (homo sapiens)</t>
   </si>
   <si>
-    <t>185731631</t>
-  </si>
-  <si>
-    <t>112614911</t>
+    <t>119520856</t>
+  </si>
+  <si>
+    <t>46508552</t>
   </si>
   <si>
     <t>2959881</t>
@@ -2196,31 +2196,31 @@
     <t>adra1d (homo sapiens)</t>
   </si>
   <si>
-    <t>84114472</t>
-  </si>
-  <si>
-    <t>158676538</t>
-  </si>
-  <si>
-    <t>112614821</t>
-  </si>
-  <si>
-    <t>161453444</t>
-  </si>
-  <si>
-    <t>84114437</t>
+    <t>46508447</t>
+  </si>
+  <si>
+    <t>95248571</t>
+  </si>
+  <si>
+    <t>92499728</t>
+  </si>
+  <si>
+    <t>17694856</t>
   </si>
   <si>
     <t>binds with</t>
   </si>
   <si>
+    <t>17694933</t>
+  </si>
+  <si>
     <t>2791096</t>
   </si>
   <si>
     <t>cdkn1b (homo sapiens)</t>
   </si>
   <si>
-    <t>85278816</t>
+    <t>19125041</t>
   </si>
   <si>
     <t>675408</t>
@@ -2229,7 +2229,7 @@
     <t>pgk1 (homo sapiens)</t>
   </si>
   <si>
-    <t>155407704</t>
+    <t>89231764</t>
   </si>
   <si>
     <t>1663376</t>
@@ -2238,7 +2238,7 @@
     <t>hsd11b1 (homo sapiens)</t>
   </si>
   <si>
-    <t>117707496</t>
+    <t>51508337</t>
   </si>
   <si>
     <t>2791001</t>
@@ -2247,13 +2247,13 @@
     <t>adra1b (homo sapiens)</t>
   </si>
   <si>
-    <t>84273667</t>
-  </si>
-  <si>
-    <t>85130642</t>
-  </si>
-  <si>
-    <t>112628760</t>
+    <t>18782281</t>
+  </si>
+  <si>
+    <t>18203018</t>
+  </si>
+  <si>
+    <t>46534719</t>
   </si>
   <si>
     <t>2791941</t>
@@ -2262,13 +2262,13 @@
     <t>adra1a (homo sapiens)</t>
   </si>
   <si>
-    <t>84569087</t>
-  </si>
-  <si>
-    <t>112614819</t>
-  </si>
-  <si>
-    <t>84569178</t>
+    <t>18667246</t>
+  </si>
+  <si>
+    <t>46508443</t>
+  </si>
+  <si>
+    <t>18667421</t>
   </si>
   <si>
     <t>1658922</t>
@@ -2277,7 +2277,7 @@
     <t>kcnh7 (homo sapiens)</t>
   </si>
   <si>
-    <t>112614933</t>
+    <t>46508563</t>
   </si>
   <si>
     <t>1658726</t>
@@ -2286,7 +2286,7 @@
     <t>kcnh6 (homo sapiens)</t>
   </si>
   <si>
-    <t>112628777</t>
+    <t>46534730</t>
   </si>
   <si>
     <t>837423</t>
@@ -2298,25 +2298,25 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>155408519</t>
+    <t>114561337</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>89232516</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>180793448</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
     <t>2727947</t>
   </si>
   <si>
     <t>malignant neoplasm of prostate</t>
   </si>
   <si>
-    <t>82799791</t>
+    <t>16551531</t>
   </si>
   <si>
     <t>420238</t>
@@ -2325,7 +2325,7 @@
     <t>malignant neoplasm of urinary bladder</t>
   </si>
   <si>
-    <t>182413247</t>
+    <t>116216032</t>
   </si>
   <si>
     <t>prevents</t>
@@ -2337,7 +2337,7 @@
     <t>syndrome</t>
   </si>
   <si>
-    <t>138704299</t>
+    <t>72323684</t>
   </si>
   <si>
     <t>2940375</t>
@@ -2346,10 +2346,10 @@
     <t>symptoms</t>
   </si>
   <si>
-    <t>123121730</t>
-  </si>
-  <si>
-    <t>174006597</t>
+    <t>56681071</t>
+  </si>
+  <si>
+    <t>107785645</t>
   </si>
   <si>
     <t>607167</t>
@@ -2358,31 +2358,31 @@
     <t>hypertensive disease</t>
   </si>
   <si>
-    <t>159334761</t>
+    <t>16550769</t>
+  </si>
+  <si>
+    <t>58318672</t>
+  </si>
+  <si>
+    <t>52881099</t>
+  </si>
+  <si>
+    <t>does not prevent</t>
+  </si>
+  <si>
+    <t>93147664</t>
   </si>
   <si>
     <t>does not treat</t>
   </si>
   <si>
-    <t>119135069</t>
-  </si>
-  <si>
-    <t>does not prevent</t>
-  </si>
-  <si>
-    <t>82799029</t>
-  </si>
-  <si>
-    <t>121004390</t>
-  </si>
-  <si>
     <t>3072277</t>
   </si>
   <si>
     <t>antimicrobial susceptibility</t>
   </si>
   <si>
-    <t>196272649</t>
+    <t>130049718</t>
   </si>
   <si>
     <t>5127262</t>
@@ -2391,7 +2391,7 @@
     <t>pain</t>
   </si>
   <si>
-    <t>157656020</t>
+    <t>91429231</t>
   </si>
   <si>
     <t>4033909</t>
@@ -2400,7 +2400,7 @@
     <t>edema</t>
   </si>
   <si>
-    <t>82798955</t>
+    <t>16550695</t>
   </si>
   <si>
     <t>indicates</t>
@@ -2412,13 +2412,13 @@
     <t>observation parameter</t>
   </si>
   <si>
-    <t>192947931</t>
-  </si>
-  <si>
-    <t>161700961</t>
-  </si>
-  <si>
-    <t>139861162</t>
+    <t>95512163</t>
+  </si>
+  <si>
+    <t>73465165</t>
+  </si>
+  <si>
+    <t>126796641</t>
   </si>
   <si>
     <t>2552993</t>
@@ -2427,7 +2427,7 @@
     <t>cerebrovascular accident</t>
   </si>
   <si>
-    <t>175962047</t>
+    <t>109782366</t>
   </si>
   <si>
     <t>3262699</t>
@@ -2436,16 +2436,16 @@
     <t>contraction (finding)</t>
   </si>
   <si>
-    <t>190755429</t>
-  </si>
-  <si>
-    <t>174859095</t>
-  </si>
-  <si>
-    <t>128894804</t>
-  </si>
-  <si>
-    <t>125497274</t>
+    <t>124614927</t>
+  </si>
+  <si>
+    <t>59112471</t>
+  </si>
+  <si>
+    <t>108667532</t>
+  </si>
+  <si>
+    <t>62517155</t>
   </si>
   <si>
     <t>2506281</t>
@@ -2454,25 +2454,25 @@
     <t>adverse effects</t>
   </si>
   <si>
-    <t>121194395</t>
-  </si>
-  <si>
-    <t>196454711</t>
+    <t>58493196</t>
+  </si>
+  <si>
+    <t>71471068</t>
+  </si>
+  <si>
+    <t>130251188</t>
   </si>
   <si>
     <t>causes</t>
   </si>
   <si>
-    <t>137880355</t>
-  </si>
-  <si>
     <t>2424019</t>
   </si>
   <si>
     <t>carcinogenesis</t>
   </si>
   <si>
-    <t>166646225</t>
+    <t>100443544</t>
   </si>
   <si>
     <t>2809390</t>
@@ -2481,7 +2481,7 @@
     <t>diabetes mellitus, non-insulin-dependent</t>
   </si>
   <si>
-    <t>181973578</t>
+    <t>115775843</t>
   </si>
   <si>
     <t>2972331</t>
@@ -2490,7 +2490,7 @@
     <t>protection</t>
   </si>
   <si>
-    <t>172007318</t>
+    <t>105900286</t>
   </si>
   <si>
     <t>476523</t>
@@ -2499,7 +2499,7 @@
     <t>cardiovascular diseases</t>
   </si>
   <si>
-    <t>187603547</t>
+    <t>121403955</t>
   </si>
   <si>
     <t>2449363</t>
@@ -2508,7 +2508,7 @@
     <t>cytotoxicity</t>
   </si>
   <si>
-    <t>182621047</t>
+    <t>116487644</t>
   </si>
   <si>
     <t>2391016</t>
@@ -2517,7 +2517,7 @@
     <t>tumor growth</t>
   </si>
   <si>
-    <t>182613192</t>
+    <t>116479824</t>
   </si>
   <si>
     <t>3202301</t>
@@ -2526,16 +2526,16 @@
     <t>systemic arterial pressure</t>
   </si>
   <si>
-    <t>118859746</t>
-  </si>
-  <si>
-    <t>117707187</t>
-  </si>
-  <si>
-    <t>123994108</t>
-  </si>
-  <si>
-    <t>129603451</t>
+    <t>51507930</t>
+  </si>
+  <si>
+    <t>63229524</t>
+  </si>
+  <si>
+    <t>52613108</t>
+  </si>
+  <si>
+    <t>57601374</t>
   </si>
   <si>
     <t>4048530</t>
@@ -2544,13 +2544,13 @@
     <t>hypotension</t>
   </si>
   <si>
-    <t>121688484</t>
-  </si>
-  <si>
-    <t>138588700</t>
-  </si>
-  <si>
-    <t>82799117</t>
+    <t>55297799</t>
+  </si>
+  <si>
+    <t>72099801</t>
+  </si>
+  <si>
+    <t>16550857</t>
   </si>
   <si>
     <t>4035332</t>
@@ -2559,7 +2559,7 @@
     <t>fever</t>
   </si>
   <si>
-    <t>185252070</t>
+    <t>119108453</t>
   </si>
   <si>
     <t>356203</t>
@@ -2568,16 +2568,16 @@
     <t>asthenia</t>
   </si>
   <si>
-    <t>180792703</t>
-  </si>
-  <si>
-    <t>82798589</t>
-  </si>
-  <si>
-    <t>180791063</t>
-  </si>
-  <si>
-    <t>142255974</t>
+    <t>75916077</t>
+  </si>
+  <si>
+    <t>16550329</t>
+  </si>
+  <si>
+    <t>114559171</t>
+  </si>
+  <si>
+    <t>114560620</t>
   </si>
   <si>
     <t>414518</t>
@@ -2586,10 +2586,10 @@
     <t>congestive heart failure</t>
   </si>
   <si>
-    <t>139734878</t>
-  </si>
-  <si>
-    <t>127042694</t>
+    <t>73420079</t>
+  </si>
+  <si>
+    <t>60607851</t>
   </si>
   <si>
     <t>3060646</t>
@@ -2598,7 +2598,7 @@
     <t>mental depression</t>
   </si>
   <si>
-    <t>136098942</t>
+    <t>72217812</t>
   </si>
   <si>
     <t>5699005</t>
@@ -2607,7 +2607,7 @@
     <t>falls</t>
   </si>
   <si>
-    <t>132345958</t>
+    <t>65999206</t>
   </si>
   <si>
     <t>770955</t>
@@ -2616,7 +2616,7 @@
     <t>adenoma</t>
   </si>
   <si>
-    <t>137674440</t>
+    <t>73783810</t>
   </si>
   <si>
     <t>3773679</t>
@@ -2625,7 +2625,7 @@
     <t>tension</t>
   </si>
   <si>
-    <t>157165870</t>
+    <t>90878595</t>
   </si>
   <si>
     <t>4034179</t>
@@ -2634,7 +2634,7 @@
     <t>fatigue</t>
   </si>
   <si>
-    <t>151519060</t>
+    <t>85094975</t>
   </si>
   <si>
     <t>4027122</t>
@@ -2643,7 +2643,16 @@
     <t>pathologic neovascularization</t>
   </si>
   <si>
-    <t>82799315</t>
+    <t>16551055</t>
+  </si>
+  <si>
+    <t>5793255</t>
+  </si>
+  <si>
+    <t>ataxia</t>
+  </si>
+  <si>
+    <t>71470424</t>
   </si>
   <si>
     <t>627465</t>
@@ -2652,16 +2661,7 @@
     <t>reperfusion injury</t>
   </si>
   <si>
-    <t>132710745</t>
-  </si>
-  <si>
-    <t>5793255</t>
-  </si>
-  <si>
-    <t>ataxia</t>
-  </si>
-  <si>
-    <t>137879540</t>
+    <t>66328014</t>
   </si>
   <si>
     <t>613016</t>
@@ -2670,7 +2670,7 @@
     <t>comatose</t>
   </si>
   <si>
-    <t>82798647</t>
+    <t>16550387</t>
   </si>
   <si>
     <t>3815520</t>
@@ -2679,7 +2679,16 @@
     <t>prostatic neoplasms</t>
   </si>
   <si>
-    <t>82799790</t>
+    <t>16551530</t>
+  </si>
+  <si>
+    <t>3772078</t>
+  </si>
+  <si>
+    <t>hepatotoxicity</t>
+  </si>
+  <si>
+    <t>121933068</t>
   </si>
   <si>
     <t>67447</t>
@@ -2688,7 +2697,7 @@
     <t>hyperlipidemia</t>
   </si>
   <si>
-    <t>119138548</t>
+    <t>52858223</t>
   </si>
   <si>
     <t>598217</t>
@@ -2697,7 +2706,7 @@
     <t>hyperalgesia</t>
   </si>
   <si>
-    <t>171548411</t>
+    <t>105331723</t>
   </si>
   <si>
     <t>3378528</t>
@@ -2706,7 +2715,7 @@
     <t>insulin sensitivity</t>
   </si>
   <si>
-    <t>152730692</t>
+    <t>86262749</t>
   </si>
   <si>
     <t>does not affect</t>
@@ -2718,7 +2727,7 @@
     <t>hypercholesterolemia</t>
   </si>
   <si>
-    <t>148104382</t>
+    <t>81724163</t>
   </si>
   <si>
     <t>3761683</t>
@@ -2727,7 +2736,7 @@
     <t>erectile dysfunction</t>
   </si>
   <si>
-    <t>118805532</t>
+    <t>52541466</t>
   </si>
   <si>
     <t>4905917</t>
@@ -2736,7 +2745,7 @@
     <t>anasarca</t>
   </si>
   <si>
-    <t>82798954</t>
+    <t>16550694</t>
   </si>
   <si>
     <t>518127</t>
@@ -2745,16 +2754,16 @@
     <t>dizziness</t>
   </si>
   <si>
-    <t>142255964</t>
-  </si>
-  <si>
-    <t>180791537</t>
-  </si>
-  <si>
-    <t>82798705</t>
-  </si>
-  <si>
-    <t>180794949</t>
+    <t>114559511</t>
+  </si>
+  <si>
+    <t>16550445</t>
+  </si>
+  <si>
+    <t>114563052</t>
+  </si>
+  <si>
+    <t>75916052</t>
   </si>
   <si>
     <t>2517379</t>
@@ -2763,10 +2772,10 @@
     <t>adverse event</t>
   </si>
   <si>
-    <t>184558667</t>
-  </si>
-  <si>
-    <t>129883088</t>
+    <t>118363319</t>
+  </si>
+  <si>
+    <t>63482817</t>
   </si>
   <si>
     <t>2811301</t>
@@ -2775,10 +2784,10 @@
     <t>essential hypertension</t>
   </si>
   <si>
-    <t>159319873</t>
-  </si>
-  <si>
-    <t>117706739</t>
+    <t>51507274</t>
+  </si>
+  <si>
+    <t>93132069</t>
   </si>
   <si>
     <t>767322</t>
@@ -2787,7 +2796,7 @@
     <t>carcinoma, transitional cell</t>
   </si>
   <si>
-    <t>82798611</t>
+    <t>16550351</t>
   </si>
   <si>
     <t>534588</t>
@@ -2796,7 +2805,7 @@
     <t>spinal cord injuries</t>
   </si>
   <si>
-    <t>177819807</t>
+    <t>111646499</t>
   </si>
   <si>
     <t>458837</t>
@@ -2805,13 +2814,13 @@
     <t>benign prostatic hypertrophy</t>
   </si>
   <si>
-    <t>82799350</t>
-  </si>
-  <si>
-    <t>174482441</t>
-  </si>
-  <si>
-    <t>188216483</t>
+    <t>122071180</t>
+  </si>
+  <si>
+    <t>108301821</t>
+  </si>
+  <si>
+    <t>16551090</t>
   </si>
   <si>
     <t>4040819</t>
@@ -2820,7 +2829,7 @@
     <t>constipation</t>
   </si>
   <si>
-    <t>123223612</t>
+    <t>56824537</t>
   </si>
   <si>
     <t>2617691</t>
@@ -2829,10 +2838,10 @@
     <t>hypertensive (finding)</t>
   </si>
   <si>
-    <t>132112044</t>
-  </si>
-  <si>
-    <t>152753063</t>
+    <t>86287652</t>
+  </si>
+  <si>
+    <t>65756235</t>
   </si>
   <si>
     <t>5162323</t>
@@ -2841,7 +2850,7 @@
     <t>orthostasis</t>
   </si>
   <si>
-    <t>82798703</t>
+    <t>16550443</t>
   </si>
   <si>
     <t>3781729</t>
@@ -2850,7 +2859,7 @@
     <t>lightheadedness</t>
   </si>
   <si>
-    <t>82798704</t>
+    <t>16550444</t>
   </si>
   <si>
     <t>3117088</t>
@@ -2859,19 +2868,19 @@
     <t>mean blood pressure</t>
   </si>
   <si>
-    <t>179973947</t>
-  </si>
-  <si>
-    <t>123993597</t>
-  </si>
-  <si>
-    <t>135906314</t>
-  </si>
-  <si>
-    <t>152834616</t>
-  </si>
-  <si>
-    <t>192191136</t>
+    <t>57600758</t>
+  </si>
+  <si>
+    <t>86429060</t>
+  </si>
+  <si>
+    <t>69410181</t>
+  </si>
+  <si>
+    <t>125979551</t>
+  </si>
+  <si>
+    <t>113772402</t>
   </si>
   <si>
     <t>2518770</t>
@@ -2880,16 +2889,7 @@
     <t>advanced cancer</t>
   </si>
   <si>
-    <t>187900566</t>
-  </si>
-  <si>
-    <t>3772078</t>
-  </si>
-  <si>
-    <t>hepatotoxicity</t>
-  </si>
-  <si>
-    <t>188078170</t>
+    <t>121690610</t>
   </si>
   <si>
     <t>2985752</t>
@@ -2898,7 +2898,7 @@
     <t>cancer cell growth</t>
   </si>
   <si>
-    <t>155734758</t>
+    <t>89579969</t>
   </si>
   <si>
     <t>5699817</t>
@@ -2907,7 +2907,7 @@
     <t>vasospasm</t>
   </si>
   <si>
-    <t>149106628</t>
+    <t>82730240</t>
   </si>
   <si>
     <t>4035388</t>
@@ -2916,7 +2916,7 @@
     <t>fasting</t>
   </si>
   <si>
-    <t>122053631</t>
+    <t>55655769</t>
   </si>
   <si>
     <t>3074587</t>
@@ -2925,10 +2925,10 @@
     <t>hypotension, orthostatic</t>
   </si>
   <si>
-    <t>136099176</t>
-  </si>
-  <si>
-    <t>82799183</t>
+    <t>16550923</t>
+  </si>
+  <si>
+    <t>72217996</t>
   </si>
   <si>
     <t>651793</t>
@@ -2937,7 +2937,7 @@
     <t>psychogenic coma</t>
   </si>
   <si>
-    <t>82798646</t>
+    <t>16550386</t>
   </si>
   <si>
     <t>4794312</t>
@@ -2946,7 +2946,7 @@
     <t>xerostomia</t>
   </si>
   <si>
-    <t>151519171</t>
+    <t>85095085</t>
   </si>
   <si>
     <t>901974</t>
@@ -2955,7 +2955,7 @@
     <t>actual positive blood pressure</t>
   </si>
   <si>
-    <t>127834140</t>
+    <t>61383568</t>
   </si>
   <si>
     <t>452677</t>
@@ -2964,7 +2964,7 @@
     <t>urinary retention</t>
   </si>
   <si>
-    <t>82799953</t>
+    <t>16551693</t>
   </si>
   <si>
     <t>2385802</t>
@@ -2973,7 +2973,7 @@
     <t>functional status</t>
   </si>
   <si>
-    <t>131417472</t>
+    <t>64923275</t>
   </si>
   <si>
     <t>412329</t>
@@ -2982,7 +2982,7 @@
     <t>urologic diseases</t>
   </si>
   <si>
-    <t>82799997</t>
+    <t>16551737</t>
   </si>
   <si>
     <t>319832</t>
@@ -2991,7 +2991,7 @@
     <t>oligospermia</t>
   </si>
   <si>
-    <t>164867359</t>
+    <t>98667252</t>
   </si>
   <si>
     <t>4028181</t>
@@ -3000,10 +3000,10 @@
     <t>mydriasis</t>
   </si>
   <si>
-    <t>197416848</t>
-  </si>
-  <si>
-    <t>197430709</t>
+    <t>131268331</t>
+  </si>
+  <si>
+    <t>131254724</t>
   </si>
   <si>
     <t>2353776</t>
@@ -3012,7 +3012,7 @@
     <t>medical care, unspecified</t>
   </si>
   <si>
-    <t>131418280</t>
+    <t>64924116</t>
   </si>
   <si>
     <t>2506267</t>
@@ -3021,7 +3021,7 @@
     <t>overactive bladder</t>
   </si>
   <si>
-    <t>82799901</t>
+    <t>16551641</t>
   </si>
   <si>
     <t>4034796</t>
@@ -3030,7 +3030,7 @@
     <t>hypertension, renovascular</t>
   </si>
   <si>
-    <t>139615472</t>
+    <t>73137361</t>
   </si>
   <si>
     <t>4791878</t>
@@ -3039,7 +3039,7 @@
     <t>urination disorders</t>
   </si>
   <si>
-    <t>82799975</t>
+    <t>16551715</t>
   </si>
   <si>
     <t>5797127</t>
@@ -3048,7 +3048,7 @@
     <t>urinary tract obstruction, nos</t>
   </si>
   <si>
-    <t>159016830</t>
+    <t>92822708</t>
   </si>
   <si>
     <t>5027780</t>
@@ -3057,7 +3057,7 @@
     <t>priapism</t>
   </si>
   <si>
-    <t>187638424</t>
+    <t>121437189</t>
   </si>
   <si>
     <t>408352</t>
@@ -3066,10 +3066,10 @@
     <t>sweating</t>
   </si>
   <si>
-    <t>196079692</t>
-  </si>
-  <si>
-    <t>196079675</t>
+    <t>129875354</t>
+  </si>
+  <si>
+    <t>129875362</t>
   </si>
   <si>
     <t>3250152</t>
@@ -3078,7 +3078,7 @@
     <t>patient symptoms</t>
   </si>
   <si>
-    <t>158531074</t>
+    <t>92351022</t>
   </si>
   <si>
     <t>2998867</t>
@@ -3087,7 +3087,7 @@
     <t>overactivity</t>
   </si>
   <si>
-    <t>144144025</t>
+    <t>77752666</t>
   </si>
   <si>
     <t>5060394</t>
@@ -3096,13 +3096,13 @@
     <t>bladder neck obstruction</t>
   </si>
   <si>
-    <t>153637493</t>
-  </si>
-  <si>
-    <t>136770225</t>
-  </si>
-  <si>
-    <t>154603771</t>
+    <t>88402902</t>
+  </si>
+  <si>
+    <t>70290089</t>
+  </si>
+  <si>
+    <t>87328501</t>
   </si>
   <si>
     <t>3743641</t>
@@ -3111,7 +3111,7 @@
     <t>sitting position</t>
   </si>
   <si>
-    <t>180049066</t>
+    <t>113875551</t>
   </si>
   <si>
     <t>2394090</t>
@@ -3120,10 +3120,10 @@
     <t>lower urinary tract symptoms</t>
   </si>
   <si>
-    <t>157653822</t>
-  </si>
-  <si>
-    <t>136969622</t>
+    <t>70558906</t>
+  </si>
+  <si>
+    <t>91427064</t>
   </si>
   <si>
     <t>4048131</t>
@@ -3132,7 +3132,7 @@
     <t>intraoperative complications</t>
   </si>
   <si>
-    <t>82799285</t>
+    <t>16551025</t>
   </si>
   <si>
     <t>2863535</t>
@@ -3141,7 +3141,7 @@
     <t>hormone-refractory prostate cancer</t>
   </si>
   <si>
-    <t>180111384</t>
+    <t>113890659</t>
   </si>
   <si>
     <t>3742209</t>
@@ -3150,7 +3150,7 @@
     <t>transitional cell carcinoma of bladder</t>
   </si>
   <si>
-    <t>198237328</t>
+    <t>132082576</t>
   </si>
   <si>
     <t>134104</t>
@@ -3159,7 +3159,7 @@
     <t>injuries, surgical</t>
   </si>
   <si>
-    <t>82799284</t>
+    <t>16551024</t>
   </si>
   <si>
     <t>698313</t>
@@ -3168,13 +3168,13 @@
     <t>nocturia</t>
   </si>
   <si>
-    <t>167977529</t>
-  </si>
-  <si>
-    <t>167962779</t>
-  </si>
-  <si>
-    <t>188215346</t>
+    <t>101747758</t>
+  </si>
+  <si>
+    <t>122070029</t>
+  </si>
+  <si>
+    <t>101762604</t>
   </si>
   <si>
     <t>5802013</t>
@@ -3183,7 +3183,7 @@
     <t>chronic prostatitis</t>
   </si>
   <si>
-    <t>125429306</t>
+    <t>58946900</t>
   </si>
   <si>
     <t>3770624</t>
@@ -3192,7 +3192,7 @@
     <t>normal renal function</t>
   </si>
   <si>
-    <t>132113006</t>
+    <t>65757095</t>
   </si>
   <si>
     <t>564813</t>
@@ -3201,7 +3201,7 @@
     <t>concomitant disease</t>
   </si>
   <si>
-    <t>188732718</t>
+    <t>122530626</t>
   </si>
   <si>
     <t>730198</t>
@@ -3210,7 +3210,7 @@
     <t>overactive detrusor</t>
   </si>
   <si>
-    <t>82799900</t>
+    <t>16551640</t>
   </si>
   <si>
     <t>2342837</t>
@@ -3219,7 +3219,7 @@
     <t>prostatic adenoma</t>
   </si>
   <si>
-    <t>82799351</t>
+    <t>16551091</t>
   </si>
   <si>
     <t>4810713</t>
@@ -3228,7 +3228,7 @@
     <t>ureterolithiasis</t>
   </si>
   <si>
-    <t>189544913</t>
+    <t>123340765</t>
   </si>
   <si>
     <t>1109544</t>
@@ -3237,7 +3237,7 @@
     <t>detrusor instability</t>
   </si>
   <si>
-    <t>182764006</t>
+    <t>116625233</t>
   </si>
   <si>
     <t>4612639</t>
@@ -3246,7 +3246,7 @@
     <t>urge incontinence</t>
   </si>
   <si>
-    <t>82799931</t>
+    <t>16551671</t>
   </si>
   <si>
     <t>3071483</t>
@@ -3255,7 +3255,7 @@
     <t>urinary symptoms</t>
   </si>
   <si>
-    <t>123230406</t>
+    <t>56812244</t>
   </si>
   <si>
     <t>3063701</t>
@@ -3264,7 +3264,7 @@
     <t>neonatal pneumonia</t>
   </si>
   <si>
-    <t>158676463</t>
+    <t>92499676</t>
   </si>
   <si>
     <t>3763436</t>
@@ -3273,7 +3273,7 @@
     <t>autonomic dysreflexia</t>
   </si>
   <si>
-    <t>153120237</t>
+    <t>86796280</t>
   </si>
   <si>
     <t>5796673</t>
@@ -3282,7 +3282,7 @@
     <t>peripheral edema</t>
   </si>
   <si>
-    <t>142255896</t>
+    <t>75916002</t>
   </si>
   <si>
     <t>2607675</t>
@@ -3291,7 +3291,7 @@
     <t>peak flow</t>
   </si>
   <si>
-    <t>174006240</t>
+    <t>107785282</t>
   </si>
   <si>
     <t>3728239</t>
@@ -3300,7 +3300,7 @@
     <t>acute retention of urine</t>
   </si>
   <si>
-    <t>196572173</t>
+    <t>130419709</t>
   </si>
   <si>
     <t>3023032</t>
@@ -3309,13 +3309,13 @@
     <t>urinary flow rate</t>
   </si>
   <si>
-    <t>143133288</t>
-  </si>
-  <si>
-    <t>174006567</t>
-  </si>
-  <si>
-    <t>150662585</t>
+    <t>107785599</t>
+  </si>
+  <si>
+    <t>76745605</t>
+  </si>
+  <si>
+    <t>84216182</t>
   </si>
   <si>
     <t>3814885</t>
@@ -3324,7 +3324,7 @@
     <t>premature ejaculation</t>
   </si>
   <si>
-    <t>149863066</t>
+    <t>83442885</t>
   </si>
   <si>
     <t>493360</t>
@@ -3333,7 +3333,7 @@
     <t>nightmares</t>
   </si>
   <si>
-    <t>141615812</t>
+    <t>75220587</t>
   </si>
   <si>
     <t>2514384</t>
@@ -3342,7 +3342,7 @@
     <t>spinal cord injury cervical</t>
   </si>
   <si>
-    <t>177822447</t>
+    <t>111649270</t>
   </si>
   <si>
     <t>3373072</t>
@@ -3351,7 +3351,7 @@
     <t>obstructive symptom</t>
   </si>
   <si>
-    <t>148887871</t>
+    <t>82462472</t>
   </si>
   <si>
     <t>2995533</t>
@@ -3360,7 +3360,7 @@
     <t>chronic pelvic pain syndrome</t>
   </si>
   <si>
-    <t>117749024</t>
+    <t>51554920</t>
   </si>
   <si>
     <t>2436361</t>
@@ -3369,7 +3369,7 @@
     <t>bladder symptoms</t>
   </si>
   <si>
-    <t>181472378</t>
+    <t>115245002</t>
   </si>
   <si>
     <t>3761702</t>
@@ -3378,13 +3378,13 @@
     <t>prostatism</t>
   </si>
   <si>
-    <t>153637004</t>
-  </si>
-  <si>
-    <t>82799821</t>
-  </si>
-  <si>
-    <t>167777056</t>
+    <t>16551561</t>
+  </si>
+  <si>
+    <t>101590454</t>
+  </si>
+  <si>
+    <t>87328098</t>
   </si>
   <si>
     <t>3023255</t>
@@ -3393,19 +3393,19 @@
     <t>urethral pressure</t>
   </si>
   <si>
-    <t>195764574</t>
-  </si>
-  <si>
-    <t>135215045</t>
-  </si>
-  <si>
-    <t>195764729</t>
-  </si>
-  <si>
-    <t>158413650</t>
-  </si>
-  <si>
-    <t>195764904</t>
+    <t>68846660</t>
+  </si>
+  <si>
+    <t>129578152</t>
+  </si>
+  <si>
+    <t>129578317</t>
+  </si>
+  <si>
+    <t>92234231</t>
+  </si>
+  <si>
+    <t>129578508</t>
   </si>
   <si>
     <t>3750469</t>
@@ -3414,7 +3414,7 @@
     <t>prostatic obstruction, nos</t>
   </si>
   <si>
-    <t>188631224</t>
+    <t>122487977</t>
   </si>
   <si>
     <t>3371076</t>
@@ -3423,7 +3423,7 @@
     <t>increased sweating</t>
   </si>
   <si>
-    <t>141243809</t>
+    <t>74848199</t>
   </si>
   <si>
     <t>4041873</t>
@@ -3432,7 +3432,7 @@
     <t>drug tolerance</t>
   </si>
   <si>
-    <t>164764737</t>
+    <t>98532087</t>
   </si>
   <si>
     <t>2415285</t>
@@ -3441,7 +3441,7 @@
     <t>burn of skin of body region</t>
   </si>
   <si>
-    <t>179294147</t>
+    <t>113073303</t>
   </si>
   <si>
     <t>3023844</t>
@@ -3450,7 +3450,7 @@
     <t>bladder compliance</t>
   </si>
   <si>
-    <t>153908311</t>
+    <t>87671674</t>
   </si>
   <si>
     <t>3220170</t>
@@ -3459,7 +3459,7 @@
     <t>intraoperative hypotension</t>
   </si>
   <si>
-    <t>155989625</t>
+    <t>89802903</t>
   </si>
   <si>
     <t>3023847</t>
@@ -3468,7 +3468,7 @@
     <t>detrusor pressure</t>
   </si>
   <si>
-    <t>183319671</t>
+    <t>117125876</t>
   </si>
   <si>
     <t>3144732</t>
@@ -3477,7 +3477,7 @@
     <t>sympathetically maintained pain</t>
   </si>
   <si>
-    <t>149106397</t>
+    <t>82730006</t>
   </si>
   <si>
     <t>2455027</t>
@@ -3486,7 +3486,7 @@
     <t>urinary outflow obstruction</t>
   </si>
   <si>
-    <t>163853453</t>
+    <t>97646185</t>
   </si>
   <si>
     <t>3763401</t>
@@ -3495,7 +3495,7 @@
     <t>prostatic pain</t>
   </si>
   <si>
-    <t>153207193</t>
+    <t>86892581</t>
   </si>
   <si>
     <t>3079198</t>
@@ -3504,7 +3504,7 @@
     <t>non-bacterial prostatitis</t>
   </si>
   <si>
-    <t>120668280</t>
+    <t>54309526</t>
   </si>
   <si>
     <t>3023131</t>
@@ -3513,7 +3513,7 @@
     <t>maximum urethral pressure</t>
   </si>
   <si>
-    <t>126212521</t>
+    <t>59807439</t>
   </si>
   <si>
     <t>3763928</t>
@@ -3522,7 +3522,7 @@
     <t>parotid gland swelling</t>
   </si>
   <si>
-    <t>195057463</t>
+    <t>128850015</t>
   </si>
   <si>
     <t>84764</t>
@@ -3534,7 +3534,7 @@
     <t>Physiology</t>
   </si>
   <si>
-    <t>156358201</t>
+    <t>90201422</t>
   </si>
   <si>
     <t>4747186</t>
@@ -3543,10 +3543,10 @@
     <t>apoptosis</t>
   </si>
   <si>
-    <t>134054541</t>
-  </si>
-  <si>
-    <t>183832930</t>
+    <t>67732377</t>
+  </si>
+  <si>
+    <t>117624011</t>
   </si>
   <si>
     <t>2385705</t>
@@ -3555,7 +3555,7 @@
     <t>lipid metabolism</t>
   </si>
   <si>
-    <t>122053683</t>
+    <t>55655874</t>
   </si>
   <si>
     <t>2424024</t>
@@ -3564,7 +3564,7 @@
     <t>cell proliferation</t>
   </si>
   <si>
-    <t>156358262</t>
+    <t>90201490</t>
   </si>
   <si>
     <t>4042066</t>
@@ -3573,7 +3573,7 @@
     <t>cell death</t>
   </si>
   <si>
-    <t>173541173</t>
+    <t>107320735</t>
   </si>
   <si>
     <t>638762</t>
@@ -3582,7 +3582,7 @@
     <t>cell growth</t>
   </si>
   <si>
-    <t>180111359</t>
+    <t>113890632</t>
   </si>
   <si>
     <t>3773404</t>
@@ -3591,13 +3591,13 @@
     <t>baresthesia</t>
   </si>
   <si>
-    <t>197420362</t>
-  </si>
-  <si>
-    <t>126212757</t>
-  </si>
-  <si>
-    <t>160969660</t>
+    <t>131258368</t>
+  </si>
+  <si>
+    <t>94778539</t>
+  </si>
+  <si>
+    <t>59807638</t>
   </si>
   <si>
     <t>3781725</t>
@@ -3606,7 +3606,7 @@
     <t>excretory function</t>
   </si>
   <si>
-    <t>130711276</t>
+    <t>64299605</t>
   </si>
   <si>
     <t>4042152</t>
@@ -3615,7 +3615,7 @@
     <t>cell communication</t>
   </si>
   <si>
-    <t>194347521</t>
+    <t>128191266</t>
   </si>
   <si>
     <t>4048421</t>
@@ -3624,7 +3624,7 @@
     <t>hemodynamics</t>
   </si>
   <si>
-    <t>150751072</t>
+    <t>84277145</t>
   </si>
   <si>
     <t>482261</t>
@@ -3633,13 +3633,13 @@
     <t>systolic pressure</t>
   </si>
   <si>
-    <t>135906056</t>
-  </si>
-  <si>
-    <t>138675483</t>
-  </si>
-  <si>
-    <t>157517752</t>
+    <t>91288061</t>
+  </si>
+  <si>
+    <t>72326426</t>
+  </si>
+  <si>
+    <t>69409984</t>
   </si>
   <si>
     <t>4047738</t>
@@ -3648,7 +3648,7 @@
     <t>nerve supply</t>
   </si>
   <si>
-    <t>176602796</t>
+    <t>110472972</t>
   </si>
   <si>
     <t>3764908</t>
@@ -3657,7 +3657,7 @@
     <t>long-term potentiation</t>
   </si>
   <si>
-    <t>191359344</t>
+    <t>125146818</t>
   </si>
   <si>
     <t>3769410</t>
@@ -3666,7 +3666,7 @@
     <t>facilitation</t>
   </si>
   <si>
-    <t>169040879</t>
+    <t>102854836</t>
   </si>
   <si>
     <t>500157</t>
@@ -3675,10 +3675,10 @@
     <t>cardiac output</t>
   </si>
   <si>
-    <t>139735500</t>
-  </si>
-  <si>
-    <t>121193796</t>
+    <t>73420575</t>
+  </si>
+  <si>
+    <t>58492803</t>
   </si>
   <si>
     <t>3769724</t>
@@ -3687,7 +3687,7 @@
     <t>arterial pulse pressure</t>
   </si>
   <si>
-    <t>141521609</t>
+    <t>75188036</t>
   </si>
   <si>
     <t>3815097</t>
@@ -3696,7 +3696,7 @@
     <t>reflex action</t>
   </si>
   <si>
-    <t>136099096</t>
+    <t>72217930</t>
   </si>
   <si>
     <t>3257614</t>
@@ -3705,7 +3705,7 @@
     <t>apoptogenic cytochrome c release channel activity</t>
   </si>
   <si>
-    <t>194347671</t>
+    <t>128191421</t>
   </si>
   <si>
     <t>34761</t>
@@ -3714,7 +3714,7 @@
     <t>diuresis</t>
   </si>
   <si>
-    <t>131757269</t>
+    <t>65360045</t>
   </si>
   <si>
     <t>617110</t>
@@ -3723,7 +3723,7 @@
     <t>urination</t>
   </si>
   <si>
-    <t>127711729</t>
+    <t>61261874</t>
   </si>
   <si>
     <t>3815100</t>
@@ -3732,10 +3732,10 @@
     <t>stroke volume</t>
   </si>
   <si>
-    <t>123993894</t>
-  </si>
-  <si>
-    <t>139735395</t>
+    <t>57601104</t>
+  </si>
+  <si>
+    <t>73420496</t>
   </si>
   <si>
     <t>3377588</t>
@@ -3744,7 +3744,7 @@
     <t>anoikis</t>
   </si>
   <si>
-    <t>128836378</t>
+    <t>62424313</t>
   </si>
   <si>
     <t>3814436</t>
@@ -3753,7 +3753,7 @@
     <t>penile erection</t>
   </si>
   <si>
-    <t>177822331</t>
+    <t>111649113</t>
   </si>
   <si>
     <t>3767583</t>
@@ -3762,7 +3762,7 @@
     <t>bladder function, nos</t>
   </si>
   <si>
-    <t>153908153</t>
+    <t>87671503</t>
   </si>
   <si>
     <t>3265353</t>
@@ -3771,7 +3771,7 @@
     <t>monocyte activation</t>
   </si>
   <si>
-    <t>123907474</t>
+    <t>57517248</t>
   </si>
   <si>
     <t>3746632</t>
@@ -3780,7 +3780,7 @@
     <t>synaptic potentials</t>
   </si>
   <si>
-    <t>141479532</t>
+    <t>75044948</t>
   </si>
   <si>
     <t>5044645</t>
@@ -3789,7 +3789,7 @@
     <t>urodynamics</t>
   </si>
   <si>
-    <t>157639757</t>
+    <t>91448456</t>
   </si>
   <si>
     <t>157751</t>
@@ -3798,7 +3798,7 @@
     <t>alpha1-adrenergic receptor activity</t>
   </si>
   <si>
-    <t>125212629</t>
+    <t>58791675</t>
   </si>
   <si>
     <t>241758</t>
@@ -3807,7 +3807,7 @@
     <t>urinary tract physiology</t>
   </si>
   <si>
-    <t>126212243</t>
+    <t>59807190</t>
   </si>
   <si>
     <t>2984510</t>
@@ -3816,7 +3816,7 @@
     <t>calcineurin pathway</t>
   </si>
   <si>
-    <t>183765178</t>
+    <t>117544132</t>
   </si>
   <si>
     <t>614642</t>
@@ -3825,7 +3825,7 @@
     <t>alpha adrenoceptor activity</t>
   </si>
   <si>
-    <t>159131298</t>
+    <t>92836481</t>
   </si>
   <si>
     <t>201773</t>
@@ -3834,7 +3834,7 @@
     <t>terazosin induced platelet antibody.immunoglobulin m:presence:point in time:serum/plasma:ordinal:flow cytometry</t>
   </si>
   <si>
-    <t>204593346</t>
+    <t>138425607</t>
   </si>
   <si>
     <t>is part of</t>
@@ -3846,7 +3846,7 @@
     <t>terazosin induced neutrophil antibody.immunoglobulin m:presence:point in time:serum/plasma:ordinal:flow cytometry</t>
   </si>
   <si>
-    <t>204593366</t>
+    <t>138425623</t>
   </si>
   <si>
     <t>201019</t>
@@ -3855,7 +3855,7 @@
     <t>terazosin induced platelet antibody.immunoglobulin g:presence:point in time:serum/plasma:ordinal:flow cytometry</t>
   </si>
   <si>
-    <t>204593334</t>
+    <t>138425598</t>
   </si>
   <si>
     <t>200938</t>
@@ -3864,7 +3864,7 @@
     <t>terazosin induced neutrophil antibody.immunoglobulin g:presence:point in time:serum/plasma:ordinal:flow cytometry</t>
   </si>
   <si>
-    <t>204593356</t>
+    <t>138425616</t>
   </si>
   <si>
     <t>860106</t>
@@ -3873,25 +3873,25 @@
     <t>terazosin:mass concentration:point in time:serum/plasma:quantitative</t>
   </si>
   <si>
-    <t>204593311</t>
-  </si>
-  <si>
-    <t>206079144</t>
+    <t>139890844</t>
   </si>
   <si>
     <t>measures</t>
   </si>
   <si>
+    <t>138425570</t>
+  </si>
+  <si>
     <t>848780</t>
   </si>
   <si>
     <t>terazosin:mass concentration:point in time:whole blood:quantitative</t>
   </si>
   <si>
-    <t>204593302</t>
-  </si>
-  <si>
-    <t>206080859</t>
+    <t>138425561</t>
+  </si>
+  <si>
+    <t>139892559</t>
   </si>
 </sst>
 </file>
@@ -4069,13 +4069,13 @@
         <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
         <v>41</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.84252405166626</v>
+        <v>6.841952323913574</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -4110,31 +4110,31 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
         <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
         <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -4163,7 +4163,7 @@
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -4192,7 +4192,7 @@
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.679100513458252</v>
+        <v>6.678774833679199</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -4227,12 +4227,12 @@
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.678339958190918</v>
+        <v>6.676923751831055</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -4256,12 +4256,12 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.66126012802124</v>
+        <v>6.661184787750244</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -4285,7 +4285,7 @@
         <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -4314,7 +4314,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -4349,13 +4349,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
         <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -4384,13 +4384,13 @@
         <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -4419,12 +4419,12 @@
         <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.510720729827881</v>
+        <v>6.515599250793457</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -4448,12 +4448,12 @@
         <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.508689880371094</v>
+        <v>6.5121049880981445</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -4477,94 +4477,94 @@
         <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.492701053619385</v>
+        <v>6.507992744445801</v>
       </c>
       <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
         <v>90</v>
       </c>
-      <c r="C15" t="s">
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
         <v>91</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" t="s">
-        <v>93</v>
       </c>
       <c r="K15" t="s">
         <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.491866111755371</v>
+        <v>6.492534160614014</v>
       </c>
       <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
         <v>95</v>
       </c>
-      <c r="C16" t="s">
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
         <v>96</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
         <v>97</v>
       </c>
-      <c r="I16" t="s">
-        <v>37</v>
+      <c r="M16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.4847917556762695</v>
+        <v>6.491866111755371</v>
       </c>
       <c r="B17" t="s">
         <v>98</v>
@@ -4588,12 +4588,12 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.478347301483154</v>
+        <v>6.484451770782471</v>
       </c>
       <c r="B18" t="s">
         <v>101</v>
@@ -4617,12 +4617,12 @@
         <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.472621917724609</v>
+        <v>6.478577136993408</v>
       </c>
       <c r="B19" t="s">
         <v>104</v>
@@ -4646,12 +4646,12 @@
         <v>106</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.466229438781738</v>
+        <v>6.47268009185791</v>
       </c>
       <c r="B20" t="s">
         <v>107</v>
@@ -4675,12 +4675,12 @@
         <v>109</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.427446365356445</v>
+        <v>6.466111183166504</v>
       </c>
       <c r="B21" t="s">
         <v>110</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.425957679748535</v>
+        <v>6.426346778869629</v>
       </c>
       <c r="B22" t="s">
         <v>113</v>
@@ -4733,12 +4733,12 @@
         <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.419097900390625</v>
+        <v>6.412528991699219</v>
       </c>
       <c r="B23" t="s">
         <v>116</v>
@@ -4762,12 +4762,12 @@
         <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.412261486053467</v>
+        <v>6.407958984375</v>
       </c>
       <c r="B24" t="s">
         <v>119</v>
@@ -4791,12 +4791,12 @@
         <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.407011985778809</v>
+        <v>6.407079696655273</v>
       </c>
       <c r="B25" t="s">
         <v>122</v>
@@ -4820,12 +4820,12 @@
         <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.406402111053467</v>
+        <v>6.405519962310791</v>
       </c>
       <c r="B26" t="s">
         <v>125</v>
@@ -4849,18 +4849,18 @@
         <v>127</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s">
         <v>128</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.378396034240723</v>
+        <v>6.377817153930664</v>
       </c>
       <c r="B27" t="s">
         <v>129</v>
@@ -4884,18 +4884,18 @@
         <v>131</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s">
         <v>132</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.377164840698242</v>
+        <v>6.377092361450195</v>
       </c>
       <c r="B28" t="s">
         <v>133</v>
@@ -4919,7 +4919,7 @@
         <v>135</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
@@ -4948,7 +4948,7 @@
         <v>138</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -4977,7 +4977,7 @@
         <v>141</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -5006,12 +5006,12 @@
         <v>144</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.366147041320801</v>
+        <v>6.365775108337402</v>
       </c>
       <c r="B32" t="s">
         <v>145</v>
@@ -5035,12 +5035,12 @@
         <v>147</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.351393222808838</v>
+        <v>6.355071544647217</v>
       </c>
       <c r="B33" t="s">
         <v>148</v>
@@ -5064,12 +5064,12 @@
         <v>150</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.319794178009033</v>
+        <v>6.351393222808838</v>
       </c>
       <c r="B34" t="s">
         <v>151</v>
@@ -5093,141 +5093,141 @@
         <v>153</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" t="s">
-        <v>154</v>
-      </c>
-      <c r="K34" t="s">
         <v>42</v>
-      </c>
-      <c r="L34" t="s">
-        <v>155</v>
-      </c>
-      <c r="M34" t="s">
-        <v>49</v>
-      </c>
-      <c r="N34" t="s">
-        <v>156</v>
-      </c>
-      <c r="O34" t="s">
-        <v>42</v>
-      </c>
-      <c r="P34" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.316387176513672</v>
+        <v>6.31796932220459</v>
       </c>
       <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" t="s">
+        <v>157</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" t="s">
         <v>158</v>
       </c>
-      <c r="C35" t="s">
+      <c r="M35" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" t="s">
         <v>159</v>
       </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="O35" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" t="s">
         <v>160</v>
       </c>
-      <c r="I35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" t="s">
-        <v>161</v>
-      </c>
-      <c r="K35" t="s">
-        <v>35</v>
+      <c r="Q35" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.314044952392578</v>
+        <v>6.316387176513672</v>
       </c>
       <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
         <v>162</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
         <v>163</v>
       </c>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s">
         <v>164</v>
       </c>
-      <c r="I36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" t="s">
-        <v>165</v>
-      </c>
       <c r="K36" t="s">
-        <v>166</v>
-      </c>
-      <c r="L36" t="s">
-        <v>167</v>
-      </c>
-      <c r="M36" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.3078789710998535</v>
+        <v>6.314464092254639</v>
       </c>
       <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" t="s">
+        <v>168</v>
+      </c>
+      <c r="J37" t="s">
         <v>169</v>
       </c>
-      <c r="C37" t="s">
+      <c r="K37" t="s">
         <v>170</v>
       </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="L37" t="s">
         <v>171</v>
       </c>
-      <c r="I37" t="s">
+      <c r="M37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.28616189956665</v>
+        <v>6.3078789710998535</v>
       </c>
       <c r="B38" t="s">
         <v>172</v>
@@ -5251,12 +5251,12 @@
         <v>174</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.278310298919678</v>
+        <v>6.28580379486084</v>
       </c>
       <c r="B39" t="s">
         <v>175</v>
@@ -5280,12 +5280,12 @@
         <v>177</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.256843090057373</v>
+        <v>6.278492450714111</v>
       </c>
       <c r="B40" t="s">
         <v>178</v>
@@ -5309,12 +5309,12 @@
         <v>180</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.251064300537109</v>
+        <v>6.256843090057373</v>
       </c>
       <c r="B41" t="s">
         <v>181</v>
@@ -5338,12 +5338,12 @@
         <v>183</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.242149829864502</v>
+        <v>6.250772953033447</v>
       </c>
       <c r="B42" t="s">
         <v>184</v>
@@ -5367,12 +5367,12 @@
         <v>186</v>
       </c>
       <c r="I42" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.234461307525635</v>
+        <v>6.242149829864502</v>
       </c>
       <c r="B43" t="s">
         <v>187</v>
@@ -5396,59 +5396,59 @@
         <v>189</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" t="s">
-        <v>190</v>
-      </c>
-      <c r="K43" t="s">
-        <v>31</v>
-      </c>
-      <c r="L43" t="s">
-        <v>191</v>
-      </c>
-      <c r="M43" t="s">
-        <v>192</v>
-      </c>
-      <c r="N43" t="s">
-        <v>193</v>
-      </c>
-      <c r="O43" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.212454795837402</v>
+        <v>6.234461307525635</v>
       </c>
       <c r="B44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s">
+        <v>193</v>
+      </c>
+      <c r="K44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" t="s">
         <v>194</v>
       </c>
-      <c r="C44" t="s">
+      <c r="M44" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" t="s">
         <v>195</v>
       </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="O44" t="s">
         <v>196</v>
-      </c>
-      <c r="I44" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.196700096130371</v>
+        <v>6.212454795837402</v>
       </c>
       <c r="B45" t="s">
         <v>197</v>
@@ -5472,41 +5472,41 @@
         <v>199</v>
       </c>
       <c r="I45" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.173798561096191</v>
+        <v>6.1963701248168945</v>
       </c>
       <c r="B46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" t="s">
         <v>201</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
         <v>202</v>
       </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>203</v>
-      </c>
-      <c r="I46" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6.1627702713012695</v>
+        <v>6.182628154754639</v>
       </c>
       <c r="B47" t="s">
         <v>204</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.157390117645264</v>
+        <v>6.173798561096191</v>
       </c>
       <c r="B48" t="s">
         <v>207</v>
@@ -5559,12 +5559,12 @@
         <v>209</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.116286277770996</v>
+        <v>6.116418361663818</v>
       </c>
       <c r="B49" t="s">
         <v>210</v>
@@ -5588,12 +5588,12 @@
         <v>212</v>
       </c>
       <c r="I49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.079890251159668</v>
+        <v>6.108143329620361</v>
       </c>
       <c r="B50" t="s">
         <v>213</v>
@@ -5617,47 +5617,47 @@
         <v>215</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
-      </c>
-      <c r="J50" t="s">
-        <v>216</v>
-      </c>
-      <c r="K50" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.02785587310791</v>
+        <v>6.079890251159668</v>
       </c>
       <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" t="s">
         <v>217</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
         <v>218</v>
       </c>
-      <c r="D51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s">
         <v>219</v>
       </c>
-      <c r="I51" t="s">
-        <v>42</v>
+      <c r="K51" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.027531623840332</v>
+        <v>6.02785587310791</v>
       </c>
       <c r="B52" t="s">
         <v>220</v>
@@ -5681,12 +5681,12 @@
         <v>222</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.017188549041748</v>
+        <v>6.027531623840332</v>
       </c>
       <c r="B53" t="s">
         <v>223</v>
@@ -5710,12 +5710,12 @@
         <v>225</v>
       </c>
       <c r="I53" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.0140204429626465</v>
+        <v>6.019012451171875</v>
       </c>
       <c r="B54" t="s">
         <v>226</v>
@@ -5739,12 +5739,12 @@
         <v>228</v>
       </c>
       <c r="I54" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.011166095733643</v>
+        <v>6.0140204429626465</v>
       </c>
       <c r="B55" t="s">
         <v>229</v>
@@ -5768,12 +5768,12 @@
         <v>231</v>
       </c>
       <c r="I55" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6.003689765930176</v>
+        <v>6.011166095733643</v>
       </c>
       <c r="B56" t="s">
         <v>232</v>
@@ -5797,12 +5797,12 @@
         <v>234</v>
       </c>
       <c r="I56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.967425346374512</v>
+        <v>6.003689765930176</v>
       </c>
       <c r="B57" t="s">
         <v>235</v>
@@ -5826,7 +5826,7 @@
         <v>237</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
@@ -5855,7 +5855,7 @@
         <v>240</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
@@ -5884,24 +5884,24 @@
         <v>243</v>
       </c>
       <c r="I59" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J59" t="s">
         <v>244</v>
       </c>
       <c r="K59" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L59" t="s">
         <v>245</v>
       </c>
       <c r="M59" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.941910743713379</v>
+        <v>5.939930438995361</v>
       </c>
       <c r="B60" t="s">
         <v>246</v>
@@ -5925,12 +5925,12 @@
         <v>248</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.934537887573242</v>
+        <v>5.934939384460449</v>
       </c>
       <c r="B61" t="s">
         <v>249</v>
@@ -5954,79 +5954,79 @@
         <v>251</v>
       </c>
       <c r="I61" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="J61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K61" t="s">
         <v>35</v>
       </c>
       <c r="L61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M61" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N61" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O61" t="s">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="P61" t="s">
         <v>256</v>
       </c>
       <c r="Q61" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="R61" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S61" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="T61" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U61" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="V61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X61" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y61" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Z61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA61" t="s">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="AB61" t="s">
         <v>263</v>
       </c>
       <c r="AC61" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="AD61" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AE61" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="AF61" t="s">
         <v>266</v>
       </c>
       <c r="AG61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
@@ -6055,12 +6055,12 @@
         <v>269</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.923341274261475</v>
+        <v>5.922515869140625</v>
       </c>
       <c r="B63" t="s">
         <v>270</v>
@@ -6084,7 +6084,7 @@
         <v>272</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64">
@@ -6113,7 +6113,7 @@
         <v>275</v>
       </c>
       <c r="I64" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65">
@@ -6142,36 +6142,36 @@
         <v>278</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="J65" t="s">
         <v>279</v>
       </c>
       <c r="K65" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="L65" t="s">
         <v>280</v>
       </c>
       <c r="M65" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="N65" t="s">
         <v>281</v>
       </c>
       <c r="O65" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P65" t="s">
         <v>282</v>
       </c>
       <c r="Q65" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.86138391494751</v>
+        <v>5.861145973205566</v>
       </c>
       <c r="B66" t="s">
         <v>283</v>
@@ -6195,13 +6195,13 @@
         <v>285</v>
       </c>
       <c r="I66" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J66" t="s">
         <v>286</v>
       </c>
       <c r="K66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67">
@@ -6230,7 +6230,7 @@
         <v>289</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J67" t="s">
         <v>290</v>
@@ -6242,12 +6242,12 @@
         <v>291</v>
       </c>
       <c r="M67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.846627712249756</v>
+        <v>5.823119163513184</v>
       </c>
       <c r="B68" t="s">
         <v>292</v>
@@ -6271,7 +6271,7 @@
         <v>294</v>
       </c>
       <c r="I68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69">
@@ -6300,18 +6300,18 @@
         <v>297</v>
       </c>
       <c r="I69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J69" t="s">
         <v>298</v>
       </c>
       <c r="K69" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5.818418502807617</v>
+        <v>5.817630290985107</v>
       </c>
       <c r="B70" t="s">
         <v>299</v>
@@ -6335,12 +6335,12 @@
         <v>301</v>
       </c>
       <c r="I70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.813135147094727</v>
+        <v>5.811804294586182</v>
       </c>
       <c r="B71" t="s">
         <v>302</v>
@@ -6364,7 +6364,7 @@
         <v>304</v>
       </c>
       <c r="I71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72">
@@ -6393,7 +6393,7 @@
         <v>307</v>
       </c>
       <c r="I72" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73">
@@ -6422,12 +6422,12 @@
         <v>310</v>
       </c>
       <c r="I73" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.781726837158203</v>
+        <v>5.785425186157227</v>
       </c>
       <c r="B74" t="s">
         <v>311</v>
@@ -6451,12 +6451,12 @@
         <v>313</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5.781726837158203</v>
+        <v>5.781440734863281</v>
       </c>
       <c r="B75" t="s">
         <v>314</v>
@@ -6480,12 +6480,12 @@
         <v>316</v>
       </c>
       <c r="I75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5.7084479331970215</v>
+        <v>5.7087860107421875</v>
       </c>
       <c r="B76" t="s">
         <v>317</v>
@@ -6509,12 +6509,12 @@
         <v>319</v>
       </c>
       <c r="I76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5.703344821929932</v>
+        <v>5.702316761016846</v>
       </c>
       <c r="B77" t="s">
         <v>320</v>
@@ -6538,13 +6538,13 @@
         <v>322</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J77" t="s">
         <v>323</v>
       </c>
       <c r="K77" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78">
@@ -6573,7 +6573,7 @@
         <v>326</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79">
@@ -6602,7 +6602,7 @@
         <v>329</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
@@ -6631,12 +6631,12 @@
         <v>332</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5.558924674987793</v>
+        <v>5.557969093322754</v>
       </c>
       <c r="B81" t="s">
         <v>333</v>
@@ -6660,18 +6660,30 @@
         <v>335</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>264</v>
+      </c>
+      <c r="J81" t="s">
+        <v>336</v>
+      </c>
+      <c r="K81" t="s">
+        <v>39</v>
+      </c>
+      <c r="L81" t="s">
+        <v>337</v>
+      </c>
+      <c r="M81" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5.557969093322754</v>
+        <v>5.557490348815918</v>
       </c>
       <c r="B82" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C82" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
@@ -6686,22 +6698,10 @@
         <v>27</v>
       </c>
       <c r="H82" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
-      </c>
-      <c r="J82" t="s">
-        <v>339</v>
-      </c>
-      <c r="K82" t="s">
-        <v>37</v>
-      </c>
-      <c r="L82" t="s">
-        <v>340</v>
-      </c>
-      <c r="M82" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
@@ -6730,7 +6730,7 @@
         <v>343</v>
       </c>
       <c r="I83" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84">
@@ -6759,13 +6759,13 @@
         <v>346</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J84" t="s">
         <v>347</v>
       </c>
       <c r="K84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85">
@@ -6794,13 +6794,13 @@
         <v>350</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J85" t="s">
         <v>351</v>
       </c>
       <c r="K85" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
@@ -6829,55 +6829,55 @@
         <v>354</v>
       </c>
       <c r="I86" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J86" t="s">
         <v>355</v>
       </c>
       <c r="K86" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="L86" t="s">
         <v>356</v>
       </c>
       <c r="M86" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N86" t="s">
         <v>357</v>
       </c>
       <c r="O86" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="P86" t="s">
         <v>358</v>
       </c>
       <c r="Q86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="R86" t="s">
         <v>359</v>
       </c>
       <c r="S86" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="T86" t="s">
         <v>360</v>
       </c>
       <c r="U86" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="V86" t="s">
         <v>361</v>
       </c>
       <c r="W86" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="X86" t="s">
         <v>362</v>
       </c>
       <c r="Y86" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="Z86" t="s">
         <v>363</v>
@@ -6889,7 +6889,7 @@
         <v>364</v>
       </c>
       <c r="AC86" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -6918,42 +6918,42 @@
         <v>367</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J87" t="s">
         <v>368</v>
       </c>
       <c r="K87" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L87" t="s">
         <v>369</v>
       </c>
       <c r="M87" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="N87" t="s">
         <v>370</v>
       </c>
       <c r="O87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P87" t="s">
         <v>371</v>
       </c>
       <c r="Q87" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="R87" t="s">
         <v>372</v>
       </c>
       <c r="S87" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5.427897930145264</v>
+        <v>5.420741081237793</v>
       </c>
       <c r="B88" t="s">
         <v>373</v>
@@ -6977,13 +6977,13 @@
         <v>375</v>
       </c>
       <c r="I88" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="J88" t="s">
         <v>376</v>
       </c>
       <c r="K88" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89">
@@ -7012,12 +7012,12 @@
         <v>379</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.247265815734863</v>
+        <v>5.250190734863281</v>
       </c>
       <c r="B90" t="s">
         <v>380</v>
@@ -7041,54 +7041,54 @@
         <v>382</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J90" t="s">
         <v>383</v>
       </c>
       <c r="K90" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L90" t="s">
         <v>384</v>
       </c>
       <c r="M90" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N90" t="s">
         <v>385</v>
       </c>
       <c r="O90" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="P90" t="s">
         <v>386</v>
       </c>
       <c r="Q90" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R90" t="s">
         <v>387</v>
       </c>
       <c r="S90" t="s">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="T90" t="s">
         <v>388</v>
       </c>
       <c r="U90" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V90" t="s">
         <v>389</v>
       </c>
       <c r="W90" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5.209477424621582</v>
+        <v>5.208409309387207</v>
       </c>
       <c r="B91" t="s">
         <v>390</v>
@@ -7112,13 +7112,13 @@
         <v>392</v>
       </c>
       <c r="I91" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J91" t="s">
         <v>393</v>
       </c>
       <c r="K91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92">
@@ -7147,13 +7147,13 @@
         <v>394</v>
       </c>
       <c r="I92" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J92" t="s">
         <v>395</v>
       </c>
       <c r="K92" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93">
@@ -7182,7 +7182,7 @@
         <v>398</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94">
@@ -7211,12 +7211,12 @@
         <v>401</v>
       </c>
       <c r="I94" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5.113100528717041</v>
+        <v>5.114430904388428</v>
       </c>
       <c r="B95" t="s">
         <v>402</v>
@@ -7246,13 +7246,13 @@
         <v>405</v>
       </c>
       <c r="K95" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="L95" t="s">
         <v>406</v>
       </c>
       <c r="M95" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96">
@@ -7281,13 +7281,13 @@
         <v>409</v>
       </c>
       <c r="I96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J96" t="s">
         <v>410</v>
       </c>
       <c r="K96" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -7316,25 +7316,25 @@
         <v>413</v>
       </c>
       <c r="I97" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="J97" t="s">
         <v>414</v>
       </c>
       <c r="K97" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L97" t="s">
         <v>415</v>
       </c>
       <c r="M97" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N97" t="s">
         <v>416</v>
       </c>
       <c r="O97" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="P97" t="s">
         <v>417</v>
@@ -7369,7 +7369,7 @@
         <v>420</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99">
@@ -7398,18 +7398,18 @@
         <v>423</v>
       </c>
       <c r="I99" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J99" t="s">
         <v>424</v>
       </c>
       <c r="K99" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4.876344680786133</v>
+        <v>4.878636837005615</v>
       </c>
       <c r="B100" t="s">
         <v>425</v>
@@ -7433,7 +7433,7 @@
         <v>427</v>
       </c>
       <c r="I100" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101">
@@ -7462,25 +7462,25 @@
         <v>430</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J101" t="s">
         <v>431</v>
       </c>
       <c r="K101" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L101" t="s">
         <v>432</v>
       </c>
       <c r="M101" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N101" t="s">
         <v>433</v>
       </c>
       <c r="O101" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
@@ -7509,7 +7509,7 @@
         <v>436</v>
       </c>
       <c r="I102" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103">
@@ -7538,13 +7538,13 @@
         <v>439</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J103" t="s">
         <v>440</v>
       </c>
       <c r="K103" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="L103" t="s">
         <v>441</v>
@@ -7556,7 +7556,7 @@
         <v>442</v>
       </c>
       <c r="O103" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
@@ -7585,12 +7585,12 @@
         <v>445</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>4.660581111907959</v>
+        <v>4.664340972900391</v>
       </c>
       <c r="B105" t="s">
         <v>446</v>
@@ -7614,13 +7614,13 @@
         <v>448</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J105" t="s">
         <v>449</v>
       </c>
       <c r="K105" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106">
@@ -7649,7 +7649,7 @@
         <v>452</v>
       </c>
       <c r="I106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107">
@@ -7678,7 +7678,7 @@
         <v>455</v>
       </c>
       <c r="I107" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108">
@@ -7713,13 +7713,13 @@
         <v>460</v>
       </c>
       <c r="K108" t="s">
+        <v>264</v>
+      </c>
+      <c r="L108" t="s">
         <v>461</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>462</v>
-      </c>
-      <c r="M108" t="s">
-        <v>265</v>
       </c>
       <c r="N108" t="s">
         <v>463</v>
@@ -7754,7 +7754,7 @@
         <v>466</v>
       </c>
       <c r="I109" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110">
@@ -7783,13 +7783,13 @@
         <v>469</v>
       </c>
       <c r="I110" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="J110" t="s">
         <v>470</v>
       </c>
       <c r="K110" t="s">
-        <v>37</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111">
@@ -7818,7 +7818,7 @@
         <v>473</v>
       </c>
       <c r="I111" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112">
@@ -7847,7 +7847,7 @@
         <v>476</v>
       </c>
       <c r="I112" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113">
@@ -7876,7 +7876,7 @@
         <v>479</v>
       </c>
       <c r="I113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114">
@@ -7905,7 +7905,7 @@
         <v>482</v>
       </c>
       <c r="I114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115">
@@ -7934,7 +7934,7 @@
         <v>485</v>
       </c>
       <c r="I115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116">
@@ -7963,7 +7963,7 @@
         <v>488</v>
       </c>
       <c r="I116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117">
@@ -7992,7 +7992,7 @@
         <v>491</v>
       </c>
       <c r="I117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118">
@@ -8021,7 +8021,7 @@
         <v>494</v>
       </c>
       <c r="I118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="119">
@@ -8050,7 +8050,7 @@
         <v>497</v>
       </c>
       <c r="I119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120">
@@ -8079,7 +8079,7 @@
         <v>500</v>
       </c>
       <c r="I120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121">
@@ -8108,7 +8108,7 @@
         <v>503</v>
       </c>
       <c r="I121" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122">
@@ -8137,7 +8137,7 @@
         <v>506</v>
       </c>
       <c r="I122" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123">
@@ -8166,7 +8166,7 @@
         <v>509</v>
       </c>
       <c r="I123" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124">
@@ -8195,7 +8195,7 @@
         <v>512</v>
       </c>
       <c r="I124" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125">
@@ -8224,7 +8224,7 @@
         <v>515</v>
       </c>
       <c r="I125" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126">
@@ -8253,7 +8253,7 @@
         <v>518</v>
       </c>
       <c r="I126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127">
@@ -8282,7 +8282,7 @@
         <v>521</v>
       </c>
       <c r="I127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128">
@@ -8311,7 +8311,7 @@
         <v>524</v>
       </c>
       <c r="I128" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129">
@@ -8340,7 +8340,7 @@
         <v>527</v>
       </c>
       <c r="I129" t="s">
-        <v>459</v>
+        <v>264</v>
       </c>
       <c r="J129" t="s">
         <v>528</v>
@@ -8352,7 +8352,7 @@
         <v>529</v>
       </c>
       <c r="M129" t="s">
-        <v>265</v>
+        <v>459</v>
       </c>
     </row>
     <row r="130">
@@ -8381,13 +8381,13 @@
         <v>532</v>
       </c>
       <c r="I130" t="s">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="J130" t="s">
         <v>533</v>
       </c>
       <c r="K130" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
@@ -8416,7 +8416,7 @@
         <v>536</v>
       </c>
       <c r="I131" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132">
@@ -8445,7 +8445,7 @@
         <v>539</v>
       </c>
       <c r="I132" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="133">
@@ -8474,7 +8474,7 @@
         <v>542</v>
       </c>
       <c r="I133" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134">
@@ -8503,7 +8503,7 @@
         <v>545</v>
       </c>
       <c r="I134" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135">
@@ -8532,7 +8532,7 @@
         <v>548</v>
       </c>
       <c r="I135" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136">
@@ -8561,13 +8561,13 @@
         <v>551</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>462</v>
       </c>
       <c r="J136" t="s">
         <v>552</v>
       </c>
       <c r="K136" t="s">
-        <v>461</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137">
@@ -8596,13 +8596,13 @@
         <v>555</v>
       </c>
       <c r="I137" t="s">
-        <v>461</v>
+        <v>264</v>
       </c>
       <c r="J137" t="s">
         <v>556</v>
       </c>
       <c r="K137" t="s">
-        <v>265</v>
+        <v>462</v>
       </c>
     </row>
     <row r="138">
@@ -8631,13 +8631,13 @@
         <v>559</v>
       </c>
       <c r="I138" t="s">
-        <v>265</v>
+        <v>462</v>
       </c>
       <c r="J138" t="s">
         <v>560</v>
       </c>
       <c r="K138" t="s">
-        <v>461</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139">
@@ -8666,13 +8666,13 @@
         <v>563</v>
       </c>
       <c r="I139" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J139" t="s">
         <v>564</v>
       </c>
       <c r="K139" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140">
@@ -8701,13 +8701,13 @@
         <v>567</v>
       </c>
       <c r="I140" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J140" t="s">
         <v>568</v>
       </c>
       <c r="K140" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="141">
@@ -8736,13 +8736,13 @@
         <v>571</v>
       </c>
       <c r="I141" t="s">
-        <v>265</v>
+        <v>462</v>
       </c>
       <c r="J141" t="s">
         <v>572</v>
       </c>
       <c r="K141" t="s">
-        <v>461</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142">
@@ -8771,13 +8771,13 @@
         <v>575</v>
       </c>
       <c r="I142" t="s">
-        <v>265</v>
+        <v>462</v>
       </c>
       <c r="J142" t="s">
         <v>576</v>
       </c>
       <c r="K142" t="s">
-        <v>461</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143">
@@ -8806,7 +8806,7 @@
         <v>579</v>
       </c>
       <c r="I143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144">
@@ -8835,7 +8835,7 @@
         <v>582</v>
       </c>
       <c r="I144" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="145">
@@ -8864,7 +8864,7 @@
         <v>585</v>
       </c>
       <c r="I145" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="146">
@@ -8893,7 +8893,7 @@
         <v>588</v>
       </c>
       <c r="I146" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147">
@@ -8922,7 +8922,7 @@
         <v>591</v>
       </c>
       <c r="I147" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="148">
@@ -8951,7 +8951,7 @@
         <v>594</v>
       </c>
       <c r="I148" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -9046,7 +9046,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.8774237632751465</v>
+        <v>7.87725830078125</v>
       </c>
       <c r="B2" t="s">
         <v>595</v>
@@ -9110,7 +9110,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.229098796844482</v>
+        <v>7.2288031578063965</v>
       </c>
       <c r="B4" t="s">
         <v>605</v>
@@ -9139,7 +9139,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.205231189727783</v>
+        <v>7.204918384552002</v>
       </c>
       <c r="B5" t="s">
         <v>609</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.20107364654541</v>
+        <v>7.20075798034668</v>
       </c>
       <c r="B6" t="s">
         <v>612</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.195765018463135</v>
+        <v>7.195445537567139</v>
       </c>
       <c r="B7" t="s">
         <v>615</v>
@@ -9221,18 +9221,18 @@
         <v>617</v>
       </c>
       <c r="I7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="J7" t="s">
         <v>618</v>
       </c>
       <c r="K7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.193943977355957</v>
+        <v>7.193623065948486</v>
       </c>
       <c r="B8" t="s">
         <v>619</v>
@@ -9290,7 +9290,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.9784626960754395</v>
+        <v>6.977935791015625</v>
       </c>
       <c r="B10" t="s">
         <v>625</v>
@@ -9354,7 +9354,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.817209243774414</v>
+        <v>6.80375862121582</v>
       </c>
       <c r="B12" t="s">
         <v>632</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.795284748077393</v>
+        <v>6.795312404632568</v>
       </c>
       <c r="B13" t="s">
         <v>635</v>
@@ -9412,7 +9412,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.723211765289307</v>
+        <v>6.723179340362549</v>
       </c>
       <c r="B14" t="s">
         <v>638</v>
@@ -9465,7 +9465,7 @@
         <v>643</v>
       </c>
       <c r="I15" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="J15" t="s">
         <v>644</v>
@@ -9477,7 +9477,7 @@
         <v>646</v>
       </c>
       <c r="M15" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16">
@@ -9598,7 +9598,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.108816623687744</v>
+        <v>6.106252670288086</v>
       </c>
       <c r="B20" t="s">
         <v>659</v>
@@ -9656,7 +9656,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.9019975662231445</v>
+        <v>5.90069580078125</v>
       </c>
       <c r="B22" t="s">
         <v>665</v>
@@ -9714,7 +9714,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.806708812713623</v>
+        <v>5.8040032386779785</v>
       </c>
       <c r="B24" t="s">
         <v>671</v>
@@ -10094,7 +10094,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.614487648010254</v>
+        <v>6.614907264709473</v>
       </c>
       <c r="B2" t="s">
         <v>701</v>
@@ -10118,7 +10118,7 @@
         <v>704</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3">
@@ -10147,12 +10147,12 @@
         <v>707</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.48018217086792</v>
+        <v>6.481324672698975</v>
       </c>
       <c r="B4" t="s">
         <v>708</v>
@@ -10176,12 +10176,12 @@
         <v>710</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.419558525085449</v>
+        <v>6.421920299530029</v>
       </c>
       <c r="B5" t="s">
         <v>711</v>
@@ -10205,12 +10205,12 @@
         <v>713</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.297896385192871</v>
+        <v>6.2959771156311035</v>
       </c>
       <c r="B6" t="s">
         <v>714</v>
@@ -10234,12 +10234,12 @@
         <v>716</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.163363933563232</v>
+        <v>6.164785861968994</v>
       </c>
       <c r="B7" t="s">
         <v>717</v>
@@ -10263,12 +10263,12 @@
         <v>719</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.122196674346924</v>
+        <v>6.126996994018555</v>
       </c>
       <c r="B8" t="s">
         <v>720</v>
@@ -10292,7 +10292,7 @@
         <v>722</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
         <v>723</v>
@@ -10327,36 +10327,36 @@
         <v>726</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>603</v>
       </c>
       <c r="J9" t="s">
         <v>727</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="L9" t="s">
         <v>728</v>
       </c>
       <c r="M9" t="s">
-        <v>603</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
         <v>729</v>
       </c>
       <c r="O9" t="s">
-        <v>192</v>
+        <v>730</v>
       </c>
       <c r="P9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Q9" t="s">
-        <v>731</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.073224067687988</v>
+        <v>6.083470344543457</v>
       </c>
       <c r="B10" t="s">
         <v>732</v>
@@ -10380,7 +10380,7 @@
         <v>734</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -10409,12 +10409,12 @@
         <v>737</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.011334419250488</v>
+        <v>6.016523361206055</v>
       </c>
       <c r="B12" t="s">
         <v>738</v>
@@ -10438,12 +10438,12 @@
         <v>740</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.656025409698486</v>
+        <v>5.6575493812561035</v>
       </c>
       <c r="B13" t="s">
         <v>741</v>
@@ -10467,13 +10467,13 @@
         <v>743</v>
       </c>
       <c r="I13" t="s">
-        <v>731</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
         <v>744</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>730</v>
       </c>
       <c r="L13" t="s">
         <v>745</v>
@@ -10508,7 +10508,7 @@
         <v>748</v>
       </c>
       <c r="I14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J14" t="s">
         <v>749</v>
@@ -10520,12 +10520,12 @@
         <v>750</v>
       </c>
       <c r="M14" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.079890251159668</v>
+        <v>5.0841827392578125</v>
       </c>
       <c r="B15" t="s">
         <v>751</v>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.201084613800049</v>
+        <v>7.2010955810546875</v>
       </c>
       <c r="B2" t="s">
         <v>757</v>
@@ -10708,7 +10708,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.951505661010742</v>
+        <v>6.9511189460754395</v>
       </c>
       <c r="B3" t="s">
         <v>764</v>
@@ -10732,12 +10732,12 @@
         <v>766</v>
       </c>
       <c r="I3" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.888244152069092</v>
+        <v>6.887841701507568</v>
       </c>
       <c r="B4" t="s">
         <v>767</v>
@@ -10795,7 +10795,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.8212971687316895</v>
+        <v>6.821323394775391</v>
       </c>
       <c r="B6" t="s">
         <v>774</v>
@@ -10819,7 +10819,7 @@
         <v>776</v>
       </c>
       <c r="I6" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="J6" t="s">
         <v>777</v>
@@ -10830,7 +10830,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.800897598266602</v>
+        <v>6.803405284881592</v>
       </c>
       <c r="B7" t="s">
         <v>778</v>
@@ -10854,30 +10854,30 @@
         <v>780</v>
       </c>
       <c r="I7" t="s">
+        <v>763</v>
+      </c>
+      <c r="J7" t="s">
         <v>781</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>603</v>
+      </c>
+      <c r="L7" t="s">
         <v>782</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>783</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>784</v>
       </c>
-      <c r="M7" t="s">
-        <v>761</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>785</v>
-      </c>
-      <c r="O7" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.755674362182617</v>
+        <v>6.755704879760742</v>
       </c>
       <c r="B8" t="s">
         <v>786</v>
@@ -10906,7 +10906,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.692041873931885</v>
+        <v>6.695296764373779</v>
       </c>
       <c r="B9" t="s">
         <v>789</v>
@@ -10935,7 +10935,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.665126800537109</v>
+        <v>6.670142650604248</v>
       </c>
       <c r="B10" t="s">
         <v>792</v>
@@ -10988,24 +10988,24 @@
         <v>798</v>
       </c>
       <c r="I11" t="s">
-        <v>781</v>
+        <v>603</v>
       </c>
       <c r="J11" t="s">
         <v>799</v>
       </c>
       <c r="K11" t="s">
-        <v>603</v>
+        <v>763</v>
       </c>
       <c r="L11" t="s">
         <v>800</v>
       </c>
       <c r="M11" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.624532699584961</v>
+        <v>6.626987934112549</v>
       </c>
       <c r="B12" t="s">
         <v>801</v>
@@ -11029,7 +11029,7 @@
         <v>803</v>
       </c>
       <c r="I12" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13">
@@ -11058,25 +11058,25 @@
         <v>806</v>
       </c>
       <c r="I13" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="J13" t="s">
         <v>807</v>
       </c>
       <c r="K13" t="s">
-        <v>608</v>
+        <v>645</v>
       </c>
       <c r="L13" t="s">
         <v>808</v>
       </c>
       <c r="M13" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="N13" t="s">
         <v>809</v>
       </c>
       <c r="O13" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14">
@@ -11111,18 +11111,18 @@
         <v>813</v>
       </c>
       <c r="K14" t="s">
+        <v>763</v>
+      </c>
+      <c r="L14" t="s">
         <v>814</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>815</v>
-      </c>
-      <c r="M14" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.544563293457031</v>
+        <v>6.544858932495117</v>
       </c>
       <c r="B15" t="s">
         <v>816</v>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.531239032745361</v>
+        <v>6.531442642211914</v>
       </c>
       <c r="B16" t="s">
         <v>819</v>
@@ -11175,7 +11175,7 @@
         <v>821</v>
       </c>
       <c r="I16" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17">
@@ -11204,12 +11204,12 @@
         <v>824</v>
       </c>
       <c r="I17" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.482578277587891</v>
+        <v>6.482635021209717</v>
       </c>
       <c r="B18" t="s">
         <v>825</v>
@@ -11233,7 +11233,7 @@
         <v>827</v>
       </c>
       <c r="I18" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19">
@@ -11262,7 +11262,7 @@
         <v>830</v>
       </c>
       <c r="I19" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="20">
@@ -11320,30 +11320,30 @@
         <v>836</v>
       </c>
       <c r="I21" t="s">
-        <v>603</v>
+        <v>763</v>
       </c>
       <c r="J21" t="s">
         <v>837</v>
       </c>
       <c r="K21" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="L21" t="s">
         <v>838</v>
       </c>
       <c r="M21" t="s">
-        <v>31</v>
+        <v>603</v>
       </c>
       <c r="N21" t="s">
         <v>839</v>
       </c>
       <c r="O21" t="s">
-        <v>781</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.441617965698242</v>
+        <v>6.442554473876953</v>
       </c>
       <c r="B22" t="s">
         <v>840</v>
@@ -11367,13 +11367,13 @@
         <v>842</v>
       </c>
       <c r="I22" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="J22" t="s">
         <v>843</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L22" t="s">
         <v>844</v>
@@ -11408,7 +11408,7 @@
         <v>847</v>
       </c>
       <c r="I23" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24">
@@ -11460,7 +11460,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.411391258239746</v>
+        <v>6.416323184967041</v>
       </c>
       <c r="B25" t="s">
         <v>854</v>
@@ -11484,7 +11484,7 @@
         <v>856</v>
       </c>
       <c r="I25" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="J25" t="s">
         <v>857</v>
@@ -11495,7 +11495,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.389956951141357</v>
+        <v>6.39269495010376</v>
       </c>
       <c r="B26" t="s">
         <v>858</v>
@@ -11519,12 +11519,12 @@
         <v>860</v>
       </c>
       <c r="I26" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.327587127685547</v>
+        <v>6.333962440490723</v>
       </c>
       <c r="B27" t="s">
         <v>861</v>
@@ -11548,7 +11548,7 @@
         <v>863</v>
       </c>
       <c r="I27" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="28">
@@ -11577,7 +11577,7 @@
         <v>866</v>
       </c>
       <c r="I28" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29">
@@ -11611,7 +11611,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.218035697937012</v>
+        <v>6.218663215637207</v>
       </c>
       <c r="B30" t="s">
         <v>870</v>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.216673374176025</v>
+        <v>6.21677827835083</v>
       </c>
       <c r="B31" t="s">
         <v>873</v>
@@ -11664,12 +11664,12 @@
         <v>875</v>
       </c>
       <c r="I31" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.193833351135254</v>
+        <v>6.211606502532959</v>
       </c>
       <c r="B32" t="s">
         <v>876</v>
@@ -11693,12 +11693,12 @@
         <v>878</v>
       </c>
       <c r="I32" t="s">
-        <v>603</v>
+        <v>763</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.193169116973877</v>
+        <v>6.193833351135254</v>
       </c>
       <c r="B33" t="s">
         <v>879</v>
@@ -11722,12 +11722,12 @@
         <v>881</v>
       </c>
       <c r="I33" t="s">
-        <v>761</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.187593936920166</v>
+        <v>6.189944267272949</v>
       </c>
       <c r="B34" t="s">
         <v>882</v>
@@ -11756,7 +11756,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.179895401000977</v>
+        <v>6.180009365081787</v>
       </c>
       <c r="B35" t="s">
         <v>885</v>
@@ -11780,12 +11780,12 @@
         <v>887</v>
       </c>
       <c r="I35" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.145066261291504</v>
+        <v>6.151699066162109</v>
       </c>
       <c r="B36" t="s">
         <v>888</v>
@@ -11809,12 +11809,12 @@
         <v>890</v>
       </c>
       <c r="I36" t="s">
-        <v>761</v>
+        <v>815</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.1275129318237305</v>
+        <v>6.145313739776611</v>
       </c>
       <c r="B37" t="s">
         <v>891</v>
@@ -11838,12 +11838,12 @@
         <v>893</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>763</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.121805191040039</v>
+        <v>6.1275129318237305</v>
       </c>
       <c r="B38" t="s">
         <v>894</v>
@@ -11867,18 +11867,18 @@
         <v>896</v>
       </c>
       <c r="I38" t="s">
-        <v>897</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.118923187255859</v>
+        <v>6.122457504272461</v>
       </c>
       <c r="B39" t="s">
+        <v>897</v>
+      </c>
+      <c r="C39" t="s">
         <v>898</v>
-      </c>
-      <c r="C39" t="s">
-        <v>899</v>
       </c>
       <c r="D39" t="s">
         <v>759</v>
@@ -11893,15 +11893,15 @@
         <v>27</v>
       </c>
       <c r="H39" t="s">
+        <v>899</v>
+      </c>
+      <c r="I39" t="s">
         <v>900</v>
-      </c>
-      <c r="I39" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.104489803314209</v>
+        <v>6.12036657333374</v>
       </c>
       <c r="B40" t="s">
         <v>901</v>
@@ -11925,12 +11925,12 @@
         <v>903</v>
       </c>
       <c r="I40" t="s">
-        <v>814</v>
+        <v>763</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.059426307678223</v>
+        <v>6.105846405029297</v>
       </c>
       <c r="B41" t="s">
         <v>904</v>
@@ -11954,12 +11954,12 @@
         <v>906</v>
       </c>
       <c r="I41" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.058973789215088</v>
+        <v>6.060630798339844</v>
       </c>
       <c r="B42" t="s">
         <v>907</v>
@@ -11983,36 +11983,18 @@
         <v>909</v>
       </c>
       <c r="I42" t="s">
-        <v>761</v>
-      </c>
-      <c r="J42" t="s">
-        <v>910</v>
-      </c>
-      <c r="K42" t="s">
-        <v>770</v>
-      </c>
-      <c r="L42" t="s">
-        <v>911</v>
-      </c>
-      <c r="M42" t="s">
         <v>795</v>
-      </c>
-      <c r="N42" t="s">
-        <v>912</v>
-      </c>
-      <c r="O42" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.055184841156006</v>
+        <v>6.058973789215088</v>
       </c>
       <c r="B43" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C43" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D43" t="s">
         <v>759</v>
@@ -12027,27 +12009,39 @@
         <v>27</v>
       </c>
       <c r="H43" t="s">
+        <v>912</v>
+      </c>
+      <c r="I43" t="s">
+        <v>770</v>
+      </c>
+      <c r="J43" t="s">
+        <v>913</v>
+      </c>
+      <c r="K43" t="s">
+        <v>795</v>
+      </c>
+      <c r="L43" t="s">
+        <v>914</v>
+      </c>
+      <c r="M43" t="s">
+        <v>761</v>
+      </c>
+      <c r="N43" t="s">
         <v>915</v>
       </c>
-      <c r="I43" t="s">
-        <v>608</v>
-      </c>
-      <c r="J43" t="s">
-        <v>916</v>
-      </c>
-      <c r="K43" t="s">
-        <v>603</v>
+      <c r="O43" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.037633419036865</v>
+        <v>6.055184841156006</v>
       </c>
       <c r="B44" t="s">
+        <v>916</v>
+      </c>
+      <c r="C44" t="s">
         <v>917</v>
-      </c>
-      <c r="C44" t="s">
-        <v>918</v>
       </c>
       <c r="D44" t="s">
         <v>759</v>
@@ -12062,27 +12056,27 @@
         <v>27</v>
       </c>
       <c r="H44" t="s">
+        <v>918</v>
+      </c>
+      <c r="I44" t="s">
+        <v>608</v>
+      </c>
+      <c r="J44" t="s">
         <v>919</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>603</v>
-      </c>
-      <c r="J44" t="s">
-        <v>920</v>
-      </c>
-      <c r="K44" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.030441761016846</v>
+        <v>6.037475109100342</v>
       </c>
       <c r="B45" t="s">
+        <v>920</v>
+      </c>
+      <c r="C45" t="s">
         <v>921</v>
-      </c>
-      <c r="C45" t="s">
-        <v>922</v>
       </c>
       <c r="D45" t="s">
         <v>759</v>
@@ -12097,15 +12091,21 @@
         <v>27</v>
       </c>
       <c r="H45" t="s">
+        <v>922</v>
+      </c>
+      <c r="I45" t="s">
+        <v>763</v>
+      </c>
+      <c r="J45" t="s">
         <v>923</v>
       </c>
-      <c r="I45" t="s">
-        <v>761</v>
+      <c r="K45" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.029796600341797</v>
+        <v>6.030441761016846</v>
       </c>
       <c r="B46" t="s">
         <v>924</v>
@@ -12129,12 +12129,12 @@
         <v>926</v>
       </c>
       <c r="I46" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6.019673824310303</v>
+        <v>6.029796600341797</v>
       </c>
       <c r="B47" t="s">
         <v>927</v>
@@ -12158,30 +12158,18 @@
         <v>929</v>
       </c>
       <c r="I47" t="s">
-        <v>761</v>
-      </c>
-      <c r="J47" t="s">
-        <v>930</v>
-      </c>
-      <c r="K47" t="s">
-        <v>603</v>
-      </c>
-      <c r="L47" t="s">
-        <v>931</v>
-      </c>
-      <c r="M47" t="s">
-        <v>645</v>
+        <v>763</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.99886417388916</v>
+        <v>6.020333766937256</v>
       </c>
       <c r="B48" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C48" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D48" t="s">
         <v>759</v>
@@ -12196,15 +12184,27 @@
         <v>27</v>
       </c>
       <c r="H48" t="s">
+        <v>932</v>
+      </c>
+      <c r="I48" t="s">
+        <v>645</v>
+      </c>
+      <c r="J48" t="s">
+        <v>933</v>
+      </c>
+      <c r="K48" t="s">
+        <v>603</v>
+      </c>
+      <c r="L48" t="s">
         <v>934</v>
       </c>
-      <c r="I48" t="s">
-        <v>761</v>
+      <c r="M48" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.998690605163574</v>
+        <v>6.0140204429626465</v>
       </c>
       <c r="B49" t="s">
         <v>935</v>
@@ -12228,24 +12228,18 @@
         <v>937</v>
       </c>
       <c r="I49" t="s">
-        <v>761</v>
-      </c>
-      <c r="J49" t="s">
-        <v>938</v>
-      </c>
-      <c r="K49" t="s">
-        <v>603</v>
+        <v>763</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.985131740570068</v>
+        <v>5.998690605163574</v>
       </c>
       <c r="B50" t="s">
+        <v>938</v>
+      </c>
+      <c r="C50" t="s">
         <v>939</v>
-      </c>
-      <c r="C50" t="s">
-        <v>940</v>
       </c>
       <c r="D50" t="s">
         <v>759</v>
@@ -12260,15 +12254,21 @@
         <v>27</v>
       </c>
       <c r="H50" t="s">
+        <v>940</v>
+      </c>
+      <c r="I50" t="s">
+        <v>603</v>
+      </c>
+      <c r="J50" t="s">
         <v>941</v>
       </c>
-      <c r="I50" t="s">
-        <v>795</v>
+      <c r="K50" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.955526351928711</v>
+        <v>5.985131740570068</v>
       </c>
       <c r="B51" t="s">
         <v>942</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.939334392547607</v>
+        <v>5.955526351928711</v>
       </c>
       <c r="B52" t="s">
         <v>945</v>
@@ -12321,42 +12321,18 @@
         <v>947</v>
       </c>
       <c r="I52" t="s">
-        <v>761</v>
-      </c>
-      <c r="J52" t="s">
-        <v>948</v>
-      </c>
-      <c r="K52" t="s">
-        <v>31</v>
-      </c>
-      <c r="L52" t="s">
-        <v>949</v>
-      </c>
-      <c r="M52" t="s">
-        <v>897</v>
-      </c>
-      <c r="N52" t="s">
-        <v>950</v>
-      </c>
-      <c r="O52" t="s">
-        <v>814</v>
-      </c>
-      <c r="P52" t="s">
-        <v>951</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>608</v>
+        <v>795</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.909938812255859</v>
+        <v>5.939334392547607</v>
       </c>
       <c r="B53" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C53" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D53" t="s">
         <v>759</v>
@@ -12371,15 +12347,39 @@
         <v>27</v>
       </c>
       <c r="H53" t="s">
+        <v>950</v>
+      </c>
+      <c r="I53" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" t="s">
+        <v>951</v>
+      </c>
+      <c r="K53" t="s">
+        <v>815</v>
+      </c>
+      <c r="L53" t="s">
+        <v>952</v>
+      </c>
+      <c r="M53" t="s">
+        <v>900</v>
+      </c>
+      <c r="N53" t="s">
+        <v>953</v>
+      </c>
+      <c r="O53" t="s">
+        <v>608</v>
+      </c>
+      <c r="P53" t="s">
         <v>954</v>
       </c>
-      <c r="I53" t="s">
-        <v>761</v>
+      <c r="Q53" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.9075927734375</v>
+        <v>5.909938812255859</v>
       </c>
       <c r="B54" t="s">
         <v>955</v>
@@ -12403,7 +12403,7 @@
         <v>957</v>
       </c>
       <c r="I54" t="s">
-        <v>814</v>
+        <v>763</v>
       </c>
     </row>
     <row r="55">
@@ -12461,7 +12461,7 @@
         <v>963</v>
       </c>
       <c r="I56" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="57">
@@ -12495,7 +12495,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.860908031463623</v>
+        <v>5.862334251403809</v>
       </c>
       <c r="B58" t="s">
         <v>967</v>
@@ -12519,13 +12519,13 @@
         <v>969</v>
       </c>
       <c r="I58" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="J58" t="s">
         <v>970</v>
       </c>
       <c r="K58" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
     </row>
     <row r="59">
@@ -12559,7 +12559,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.8001861572265625</v>
+        <v>5.801553249359131</v>
       </c>
       <c r="B60" t="s">
         <v>974</v>
@@ -12612,7 +12612,7 @@
         <v>979</v>
       </c>
       <c r="I61" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="62">
@@ -12641,7 +12641,7 @@
         <v>982</v>
       </c>
       <c r="I62" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="63">
@@ -12699,12 +12699,12 @@
         <v>988</v>
       </c>
       <c r="I64" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.593319416046143</v>
+        <v>5.595518112182617</v>
       </c>
       <c r="B65" t="s">
         <v>989</v>
@@ -12728,7 +12728,7 @@
         <v>991</v>
       </c>
       <c r="I65" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="66">
@@ -12757,13 +12757,13 @@
         <v>994</v>
       </c>
       <c r="I66" t="s">
-        <v>645</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s">
         <v>995</v>
       </c>
       <c r="K66" t="s">
-        <v>31</v>
+        <v>645</v>
       </c>
     </row>
     <row r="67">
@@ -12792,7 +12792,7 @@
         <v>998</v>
       </c>
       <c r="I67" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="68">
@@ -12821,12 +12821,12 @@
         <v>1001</v>
       </c>
       <c r="I68" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.566493988037109</v>
+        <v>5.5711588859558105</v>
       </c>
       <c r="B69" t="s">
         <v>1002</v>
@@ -12850,7 +12850,7 @@
         <v>1004</v>
       </c>
       <c r="I69" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="70">
@@ -12879,7 +12879,7 @@
         <v>1007</v>
       </c>
       <c r="I70" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="71">
@@ -12908,7 +12908,7 @@
         <v>1010</v>
       </c>
       <c r="I71" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="72">
@@ -12966,13 +12966,13 @@
         <v>1016</v>
       </c>
       <c r="I73" t="s">
-        <v>603</v>
+        <v>763</v>
       </c>
       <c r="J73" t="s">
         <v>1017</v>
       </c>
       <c r="K73" t="s">
-        <v>761</v>
+        <v>603</v>
       </c>
     </row>
     <row r="74">
@@ -13001,7 +13001,7 @@
         <v>1020</v>
       </c>
       <c r="I74" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="75">
@@ -13030,7 +13030,7 @@
         <v>1023</v>
       </c>
       <c r="I75" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="76">
@@ -13059,19 +13059,19 @@
         <v>1026</v>
       </c>
       <c r="I76" t="s">
-        <v>770</v>
+        <v>603</v>
       </c>
       <c r="J76" t="s">
         <v>1027</v>
       </c>
       <c r="K76" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="L76" t="s">
         <v>1028</v>
       </c>
       <c r="M76" t="s">
-        <v>603</v>
+        <v>770</v>
       </c>
     </row>
     <row r="77">
@@ -13100,7 +13100,7 @@
         <v>1031</v>
       </c>
       <c r="I77" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="78">
@@ -13129,13 +13129,13 @@
         <v>1034</v>
       </c>
       <c r="I78" t="s">
-        <v>603</v>
+        <v>763</v>
       </c>
       <c r="J78" t="s">
         <v>1035</v>
       </c>
       <c r="K78" t="s">
-        <v>761</v>
+        <v>603</v>
       </c>
     </row>
     <row r="79">
@@ -13193,12 +13193,12 @@
         <v>1041</v>
       </c>
       <c r="I80" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5.325794696807861</v>
+        <v>5.329047679901123</v>
       </c>
       <c r="B81" t="s">
         <v>1042</v>
@@ -13222,7 +13222,7 @@
         <v>1044</v>
       </c>
       <c r="I81" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="82">
@@ -13280,19 +13280,19 @@
         <v>1050</v>
       </c>
       <c r="I83" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="J83" t="s">
         <v>1051</v>
       </c>
       <c r="K83" t="s">
-        <v>761</v>
+        <v>645</v>
       </c>
       <c r="L83" t="s">
         <v>1052</v>
       </c>
       <c r="M83" t="s">
-        <v>645</v>
+        <v>770</v>
       </c>
     </row>
     <row r="84">
@@ -13321,7 +13321,7 @@
         <v>1055</v>
       </c>
       <c r="I84" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="85">
@@ -13350,7 +13350,7 @@
         <v>1058</v>
       </c>
       <c r="I85" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="86">
@@ -13379,7 +13379,7 @@
         <v>1061</v>
       </c>
       <c r="I86" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="87">
@@ -13408,12 +13408,12 @@
         <v>1064</v>
       </c>
       <c r="I87" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5.226223468780518</v>
+        <v>5.232340335845947</v>
       </c>
       <c r="B88" t="s">
         <v>1065</v>
@@ -13437,7 +13437,7 @@
         <v>1067</v>
       </c>
       <c r="I88" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="89">
@@ -13466,7 +13466,7 @@
         <v>1070</v>
       </c>
       <c r="I89" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="90">
@@ -13524,7 +13524,7 @@
         <v>1076</v>
       </c>
       <c r="I91" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="92">
@@ -13553,7 +13553,7 @@
         <v>1079</v>
       </c>
       <c r="I92" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="93">
@@ -13582,7 +13582,7 @@
         <v>1082</v>
       </c>
       <c r="I93" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="94">
@@ -13611,7 +13611,7 @@
         <v>1085</v>
       </c>
       <c r="I94" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="95">
@@ -13640,7 +13640,7 @@
         <v>1088</v>
       </c>
       <c r="I95" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="96">
@@ -13669,7 +13669,7 @@
         <v>1091</v>
       </c>
       <c r="I96" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="97">
@@ -13698,7 +13698,7 @@
         <v>1094</v>
       </c>
       <c r="I97" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="98">
@@ -13727,19 +13727,19 @@
         <v>1097</v>
       </c>
       <c r="I98" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="J98" t="s">
         <v>1098</v>
       </c>
       <c r="K98" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="L98" t="s">
         <v>1099</v>
       </c>
       <c r="M98" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="99">
@@ -13768,7 +13768,7 @@
         <v>1102</v>
       </c>
       <c r="I99" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="100">
@@ -13797,7 +13797,7 @@
         <v>1105</v>
       </c>
       <c r="I100" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="101">
@@ -13826,7 +13826,7 @@
         <v>1108</v>
       </c>
       <c r="I101" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="102">
@@ -13855,7 +13855,7 @@
         <v>1111</v>
       </c>
       <c r="I102" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="103">
@@ -13884,7 +13884,7 @@
         <v>1114</v>
       </c>
       <c r="I103" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="104">
@@ -13913,7 +13913,7 @@
         <v>1117</v>
       </c>
       <c r="I104" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="105">
@@ -13942,19 +13942,19 @@
         <v>1120</v>
       </c>
       <c r="I105" t="s">
-        <v>603</v>
+        <v>763</v>
       </c>
       <c r="J105" t="s">
         <v>1121</v>
       </c>
       <c r="K105" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="L105" t="s">
         <v>1122</v>
       </c>
       <c r="M105" t="s">
-        <v>781</v>
+        <v>603</v>
       </c>
     </row>
     <row r="106">
@@ -13983,25 +13983,25 @@
         <v>1125</v>
       </c>
       <c r="I106" t="s">
-        <v>897</v>
+        <v>608</v>
       </c>
       <c r="J106" t="s">
         <v>1126</v>
       </c>
       <c r="K106" t="s">
-        <v>608</v>
+        <v>900</v>
       </c>
       <c r="L106" t="s">
         <v>1127</v>
       </c>
       <c r="M106" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N106" t="s">
         <v>1128</v>
       </c>
       <c r="O106" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P106" t="s">
         <v>1129</v>
@@ -14036,7 +14036,7 @@
         <v>1132</v>
       </c>
       <c r="I107" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="108">
@@ -14065,7 +14065,7 @@
         <v>1135</v>
       </c>
       <c r="I108" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="109">
@@ -14094,7 +14094,7 @@
         <v>1138</v>
       </c>
       <c r="I109" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="110">
@@ -14123,7 +14123,7 @@
         <v>1141</v>
       </c>
       <c r="I110" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="111">
@@ -14181,7 +14181,7 @@
         <v>1147</v>
       </c>
       <c r="I112" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="113">
@@ -14210,7 +14210,7 @@
         <v>1150</v>
       </c>
       <c r="I113" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114">
@@ -14239,7 +14239,7 @@
         <v>1153</v>
       </c>
       <c r="I114" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="115">
@@ -14268,7 +14268,7 @@
         <v>1156</v>
       </c>
       <c r="I115" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="116">
@@ -14297,7 +14297,7 @@
         <v>1159</v>
       </c>
       <c r="I116" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="117">
@@ -14326,7 +14326,7 @@
         <v>1162</v>
       </c>
       <c r="I117" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="118">
@@ -14355,7 +14355,7 @@
         <v>1165</v>
       </c>
       <c r="I118" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119">
@@ -14479,7 +14479,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.968690395355225</v>
+        <v>6.980528354644775</v>
       </c>
       <c r="B2" t="s">
         <v>1169</v>
@@ -14508,7 +14508,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.9059648513793945</v>
+        <v>6.906844139099121</v>
       </c>
       <c r="B3" t="s">
         <v>1173</v>
@@ -14532,7 +14532,7 @@
         <v>1175</v>
       </c>
       <c r="I3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="J3" t="s">
         <v>1176</v>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.892648696899414</v>
+        <v>6.892581939697266</v>
       </c>
       <c r="B4" t="s">
         <v>1177</v>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.722982883453369</v>
+        <v>6.722884654998779</v>
       </c>
       <c r="B5" t="s">
         <v>1180</v>
@@ -14601,7 +14601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.573749542236328</v>
+        <v>6.580976486206055</v>
       </c>
       <c r="B6" t="s">
         <v>1183</v>
@@ -14625,7 +14625,7 @@
         <v>1185</v>
       </c>
       <c r="I6" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7">
@@ -14689,13 +14689,13 @@
         <v>1192</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>603</v>
       </c>
       <c r="L8" t="s">
         <v>1193</v>
       </c>
       <c r="M8" t="s">
-        <v>603</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -14729,7 +14729,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.287590503692627</v>
+        <v>6.287501335144043</v>
       </c>
       <c r="B10" t="s">
         <v>1197</v>
@@ -14811,19 +14811,19 @@
         <v>1205</v>
       </c>
       <c r="I12" t="s">
-        <v>897</v>
+        <v>603</v>
       </c>
       <c r="J12" t="s">
         <v>1206</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L12" t="s">
         <v>1207</v>
       </c>
       <c r="M12" t="s">
-        <v>603</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13">
@@ -14852,7 +14852,7 @@
         <v>1210</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -14881,7 +14881,7 @@
         <v>1213</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -14910,7 +14910,7 @@
         <v>1216</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -14945,7 +14945,7 @@
         <v>1220</v>
       </c>
       <c r="K16" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17">
@@ -14974,7 +14974,7 @@
         <v>1223</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -15037,7 +15037,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.665462970733643</v>
+        <v>5.683743953704834</v>
       </c>
       <c r="B20" t="s">
         <v>1230</v>
@@ -15119,7 +15119,7 @@
         <v>1238</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
         <v>1239</v>
@@ -15241,7 +15241,7 @@
         <v>1251</v>
       </c>
       <c r="I26" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="27">
@@ -15270,7 +15270,7 @@
         <v>1254</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -15560,13 +15560,13 @@
         <v>1285</v>
       </c>
       <c r="I37" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K37" t="s">
         <v>1273</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1286</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="38">
@@ -15601,7 +15601,7 @@
         <v>1291</v>
       </c>
       <c r="K38" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
   </sheetData>
